--- a/Stocks/ADMA.xlsx
+++ b/Stocks/ADMA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://academiafaedupt-my.sharepoint.com/personal/sbclemente_academiafa_edu_pt/Documents/Gigs/WorkingFolder/Finance/Stocks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="868" documentId="11_FE4855BF84DCCE436F107A399131F45B7AFB1D1F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EEE41069-62D3-412E-8C99-234CD1D52F55}"/>
+  <xr:revisionPtr revIDLastSave="882" documentId="11_FE4855BF84DCCE436F107A399131F45B7AFB1D1F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B8C117E6-62E5-4471-BCA4-0B0B132BCC8D}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -421,6 +421,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -743,7 +747,7 @@
   <dimension ref="B2:P9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -838,10 +842,10 @@
   <dimension ref="A1:XFD93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="F8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Y9" sqref="Y9"/>
+      <selection pane="bottomRight" activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Stocks/ADMA.xlsx
+++ b/Stocks/ADMA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://academiafaedupt-my.sharepoint.com/personal/sbclemente_academiafa_edu_pt/Documents/Gigs/WorkingFolder/Finance/Stocks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="882" documentId="11_FE4855BF84DCCE436F107A399131F45B7AFB1D1F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B8C117E6-62E5-4471-BCA4-0B0B132BCC8D}"/>
+  <xr:revisionPtr revIDLastSave="886" documentId="11_FE4855BF84DCCE436F107A399131F45B7AFB1D1F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E7147995-BE12-44E7-8849-CB958856AD1B}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="104">
   <si>
     <t>ADMA</t>
   </si>
@@ -396,7 +396,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -406,6 +406,7 @@
     <xf numFmtId="13" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -421,10 +422,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -747,7 +744,7 @@
   <dimension ref="B2:P9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="J16" sqref="J16:J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -765,6 +762,9 @@
       <c r="L2" s="1">
         <v>15.9</v>
       </c>
+      <c r="M2" s="9">
+        <v>46018</v>
+      </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.25">
       <c r="K3" t="s">
@@ -773,6 +773,9 @@
       <c r="L3" s="1">
         <v>236.390253</v>
       </c>
+      <c r="M3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="K4" t="s">
@@ -790,6 +793,9 @@
       <c r="L5" s="1">
         <v>86.7</v>
       </c>
+      <c r="M5" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
       <c r="K6" t="s">
@@ -798,6 +804,9 @@
       <c r="L6" s="1">
         <f>1.193+1688+8.865</f>
         <v>1698.058</v>
+      </c>
+      <c r="M6" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">

--- a/Stocks/ADMA.xlsx
+++ b/Stocks/ADMA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://academiafaedupt-my.sharepoint.com/personal/sbclemente_academiafa_edu_pt/Documents/Gigs/WorkingFolder/Finance/Stocks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="886" documentId="11_FE4855BF84DCCE436F107A399131F45B7AFB1D1F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E7147995-BE12-44E7-8849-CB958856AD1B}"/>
+  <xr:revisionPtr revIDLastSave="888" documentId="11_FE4855BF84DCCE436F107A399131F45B7AFB1D1F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8CBE3505-B94D-4F61-B798-9387ECF39228}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="106">
   <si>
     <t>ADMA</t>
   </si>
@@ -350,6 +350,12 @@
   </si>
   <si>
     <t>EV/E26</t>
+  </si>
+  <si>
+    <t>Competitors</t>
+  </si>
+  <si>
+    <t>Grifols</t>
   </si>
 </sst>
 </file>
@@ -422,6 +428,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -741,10 +751,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:P9"/>
+  <dimension ref="B2:P12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16:J17"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -839,6 +849,14 @@
       <c r="P9">
         <f>+L7/235</f>
         <v>22.850906479574466</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>104</v>
+      </c>
+      <c r="C12" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/Stocks/ADMA.xlsx
+++ b/Stocks/ADMA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://academiafaedupt-my.sharepoint.com/personal/sbclemente_academiafa_edu_pt/Documents/Gigs/WorkingFolder/Finance/Stocks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1224" documentId="11_FE4855BF84DCCE436F107A399131F45B7AFB1D1F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{664AAD94-BA24-4EA1-9FF7-8ED9206CD791}"/>
+  <xr:revisionPtr revIDLastSave="1263" documentId="11_FE4855BF84DCCE436F107A399131F45B7AFB1D1F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{417FB0D9-A845-441C-B67C-75266FF415AB}"/>
   <bookViews>
-    <workbookView xWindow="32655" yWindow="3855" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="103">
   <si>
     <t>ADMA</t>
   </si>
@@ -344,6 +344,9 @@
   </si>
   <si>
     <t>main</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROIC </t>
   </si>
 </sst>
 </file>
@@ -406,7 +409,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -417,8 +420,6 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
@@ -438,6 +439,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -759,7 +764,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:P19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -774,10 +781,10 @@
         <v>1</v>
       </c>
       <c r="L2" s="1">
-        <v>15.9</v>
-      </c>
-      <c r="M2" s="8">
-        <v>46018</v>
+        <v>21</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.25">
@@ -797,7 +804,7 @@
       </c>
       <c r="L4" s="1">
         <f>+L3*L2</f>
-        <v>3758.6050227000001</v>
+        <v>4964.1953130000002</v>
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
@@ -828,7 +835,7 @@
       </c>
       <c r="L7" s="1">
         <f>+L4-L5+L6</f>
-        <v>3744.2420227000002</v>
+        <v>4949.8323130000008</v>
       </c>
       <c r="N7" t="s">
         <v>82</v>
@@ -843,15 +850,15 @@
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="N9">
         <f>+L7/104</f>
-        <v>36.002327141346157</v>
+        <v>47.594541471153853</v>
       </c>
       <c r="O9">
         <f>+L7/175</f>
-        <v>21.39566870114286</v>
+        <v>28.28475607428572</v>
       </c>
       <c r="P9">
         <f>+L7/235</f>
-        <v>15.93294477744681</v>
+        <v>21.063116225531918</v>
       </c>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.25">
@@ -923,10 +930,10 @@
   <dimension ref="A1:XFD98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G7" sqref="G7"/>
+      <selection pane="bottomRight" activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -938,8 +945,8 @@
     <col min="16" max="16" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
         <v>101</v>
       </c>
       <c r="B1" s="2"/>
@@ -950,7 +957,7 @@
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>7</v>
       </c>
@@ -1048,23 +1055,31 @@
         <f t="shared" si="0"/>
         <v>2035</v>
       </c>
-    </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI2">
+        <f t="shared" ref="AI2" si="1">+AH2+1</f>
+        <v>2036</v>
+      </c>
+      <c r="AJ2">
+        <f t="shared" ref="AJ2" si="2">+AI2+1</f>
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -1124,50 +1139,60 @@
         <f>+SUM(J7:M7)</f>
         <v>425.90499999999997</v>
       </c>
-      <c r="X7" s="1">
-        <v>490</v>
-      </c>
-      <c r="Y7" s="1">
-        <v>605</v>
+      <c r="X7" s="9">
+        <f>+W7*1.25</f>
+        <v>532.38124999999991</v>
+      </c>
+      <c r="Y7" s="9">
+        <f t="shared" ref="Y7:Z7" si="3">+X7*1.25</f>
+        <v>665.47656249999989</v>
       </c>
       <c r="Z7" s="9">
-        <f>+Y7*1.2</f>
-        <v>726</v>
+        <f t="shared" si="3"/>
+        <v>831.84570312499989</v>
       </c>
       <c r="AA7" s="9">
         <f>+Z7*1.2</f>
-        <v>871.19999999999993</v>
+        <v>998.21484374999977</v>
       </c>
       <c r="AB7" s="9">
-        <f>+AA7*1.15</f>
-        <v>1001.8799999999999</v>
+        <f t="shared" ref="AB7:AC7" si="4">+AA7*1.2</f>
+        <v>1197.8578124999997</v>
       </c>
       <c r="AC7" s="9">
-        <f>+AB7*1.15</f>
-        <v>1152.1619999999998</v>
+        <f t="shared" si="4"/>
+        <v>1437.4293749999995</v>
       </c>
       <c r="AD7" s="9">
         <f>+AC7*1.15</f>
-        <v>1324.9862999999996</v>
+        <v>1653.0437812499993</v>
       </c>
       <c r="AE7" s="9">
         <f>+AD7*1.1</f>
-        <v>1457.4849299999996</v>
+        <v>1818.3481593749993</v>
       </c>
       <c r="AF7" s="9">
         <f>+AE7*1.1</f>
-        <v>1603.2334229999997</v>
+        <v>2000.1829753124994</v>
       </c>
       <c r="AG7" s="9">
         <f>+AF7*1.05</f>
-        <v>1683.3950941499997</v>
+        <v>2100.1921240781244</v>
       </c>
       <c r="AH7" s="9">
         <f>+AG7*1.05</f>
-        <v>1767.5648488574998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+        <v>2205.2017302820309</v>
+      </c>
+      <c r="AI7" s="9">
+        <f t="shared" ref="AI7:AJ7" si="5">+AH7*1.05</f>
+        <v>2315.4618167961326</v>
+      </c>
+      <c r="AJ7" s="9">
+        <f t="shared" si="5"/>
+        <v>2431.2349076359392</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -1221,86 +1246,68 @@
         <f>+SUM(J8:M8)</f>
         <v>206.90100000000001</v>
       </c>
-      <c r="X8" s="1">
-        <f>+W8*1.05</f>
-        <v>217.24605000000003</v>
-      </c>
-      <c r="Y8" s="1">
-        <f t="shared" ref="Y8:AC8" si="1">+X8*1.05</f>
-        <v>228.10835250000002</v>
-      </c>
-      <c r="Z8" s="1">
-        <f t="shared" si="1"/>
-        <v>239.51377012500004</v>
-      </c>
-      <c r="AA8" s="1">
-        <f t="shared" si="1"/>
-        <v>251.48945863125005</v>
-      </c>
-      <c r="AB8" s="1">
-        <f t="shared" si="1"/>
-        <v>264.06393156281257</v>
-      </c>
-      <c r="AC8" s="1">
-        <f t="shared" si="1"/>
-        <v>277.26712814095322</v>
-      </c>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+      <c r="AA8" s="1"/>
+      <c r="AB8" s="1"/>
+      <c r="AC8" s="1"/>
       <c r="AD8" s="1"/>
       <c r="AE8" s="1"/>
       <c r="AF8" s="1"/>
       <c r="AG8" s="1"/>
       <c r="AH8" s="1"/>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>25</v>
       </c>
       <c r="B9" s="1">
-        <f t="shared" ref="B9:L9" si="2">+B7-B8</f>
+        <f t="shared" ref="B9:L9" si="6">+B7-B8</f>
         <v>3.6617080000000009</v>
       </c>
       <c r="C9" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>7.7697098999999987</v>
       </c>
       <c r="D9" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>9.6567080000000018</v>
       </c>
       <c r="E9" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>14.175874100000009</v>
       </c>
       <c r="F9" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>16.512999999999998</v>
       </c>
       <c r="G9" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>16.689999999999998</v>
       </c>
       <c r="H9" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>24.653000000000006</v>
       </c>
       <c r="I9" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>31.086999999999996</v>
       </c>
       <c r="J9" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>39.107999999999997</v>
       </c>
       <c r="K9" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>57.453000000000003</v>
       </c>
       <c r="L9" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>59.658999999999999</v>
       </c>
       <c r="M9" s="1">
-        <f t="shared" ref="M9" si="3">+M7-M8</f>
+        <f t="shared" ref="M9" si="7">+M7-M8</f>
         <v>62.783999999999999</v>
       </c>
       <c r="N9" s="1"/>
@@ -1317,28 +1324,28 @@
         <v>219.00399999999996</v>
       </c>
       <c r="X9" s="1">
-        <f>+X7*0.5</f>
-        <v>245</v>
+        <f t="shared" ref="X9:AC9" si="8">+X7*0.65</f>
+        <v>346.04781249999996</v>
       </c>
       <c r="Y9" s="1">
-        <f t="shared" ref="Y9:AC9" si="4">+Y7*0.65</f>
-        <v>393.25</v>
+        <f t="shared" si="8"/>
+        <v>432.55976562499995</v>
       </c>
       <c r="Z9" s="1">
-        <f t="shared" si="4"/>
-        <v>471.90000000000003</v>
+        <f t="shared" si="8"/>
+        <v>540.69970703125</v>
       </c>
       <c r="AA9" s="1">
-        <f t="shared" si="4"/>
-        <v>566.28</v>
+        <f t="shared" si="8"/>
+        <v>648.83964843749982</v>
       </c>
       <c r="AB9" s="1">
-        <f t="shared" si="4"/>
-        <v>651.22199999999998</v>
+        <f t="shared" si="8"/>
+        <v>778.6075781249998</v>
       </c>
       <c r="AC9" s="1">
-        <f t="shared" si="4"/>
-        <v>748.9052999999999</v>
+        <f t="shared" si="8"/>
+        <v>934.32909374999974</v>
       </c>
       <c r="AD9" s="1"/>
       <c r="AE9" s="1"/>
@@ -1346,7 +1353,7 @@
       <c r="AG9" s="1"/>
       <c r="AH9" s="1"/>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -1397,7 +1404,7 @@
         <v>3.2989999999999999</v>
       </c>
       <c r="W10" s="1">
-        <f t="shared" ref="W10:W12" si="5">+SUM(J10:M10)</f>
+        <f t="shared" ref="W10:W12" si="9">+SUM(J10:M10)</f>
         <v>1.8129999999999999</v>
       </c>
       <c r="X10" s="1">
@@ -1405,23 +1412,23 @@
         <v>1.9943000000000002</v>
       </c>
       <c r="Y10" s="1">
-        <f t="shared" ref="Y10:AC10" si="6">+X10*1.1</f>
+        <f t="shared" ref="Y10:AC10" si="10">+X10*1.1</f>
         <v>2.1937300000000004</v>
       </c>
       <c r="Z10" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>2.4131030000000004</v>
       </c>
       <c r="AA10" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>2.6544133000000008</v>
       </c>
       <c r="AB10" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>2.919854630000001</v>
       </c>
       <c r="AC10" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>3.2118400930000015</v>
       </c>
       <c r="AD10" s="1"/>
@@ -1430,7 +1437,7 @@
       <c r="AG10" s="1"/>
       <c r="AH10" s="1"/>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -1481,7 +1488,7 @@
         <v>4.2650000000000006</v>
       </c>
       <c r="W11" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>3.9889999999999999</v>
       </c>
       <c r="X11" s="1">
@@ -1489,23 +1496,23 @@
         <v>4.3879000000000001</v>
       </c>
       <c r="Y11" s="1">
-        <f t="shared" ref="Y11:AC11" si="7">+X11*1.1</f>
+        <f t="shared" ref="Y11:AC11" si="11">+X11*1.1</f>
         <v>4.8266900000000001</v>
       </c>
       <c r="Z11" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>5.3093590000000006</v>
       </c>
       <c r="AA11" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>5.8402949000000008</v>
       </c>
       <c r="AB11" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>6.4243243900000016</v>
       </c>
       <c r="AC11" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>7.0667568290000027</v>
       </c>
       <c r="AD11" s="1"/>
@@ -1514,7 +1521,7 @@
       <c r="AG11" s="1"/>
       <c r="AH11" s="1"/>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -1565,7 +1572,7 @@
         <v>59.021000000000001</v>
       </c>
       <c r="W12" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>69.367000000000004</v>
       </c>
       <c r="X12" s="1">
@@ -1573,23 +1580,23 @@
         <v>76.303700000000006</v>
       </c>
       <c r="Y12" s="1">
-        <f t="shared" ref="Y12:AC12" si="8">+X12*1.1</f>
+        <f t="shared" ref="Y12:AC12" si="12">+X12*1.1</f>
         <v>83.93407000000002</v>
       </c>
       <c r="Z12" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>92.32747700000003</v>
       </c>
       <c r="AA12" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>101.56022470000003</v>
       </c>
       <c r="AB12" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>111.71624717000005</v>
       </c>
       <c r="AC12" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>122.88787188700006</v>
       </c>
       <c r="AD12" s="1"/>
@@ -1598,56 +1605,56 @@
       <c r="AG12" s="1"/>
       <c r="AH12" s="1"/>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>29</v>
       </c>
       <c r="B13" s="1">
-        <f>+SUM(B10:B12)</f>
+        <f t="shared" ref="B13:M13" si="13">+SUM(B10:B12)</f>
         <v>18.297000000000001</v>
       </c>
       <c r="C13" s="1">
-        <f>+SUM(C10:C12)</f>
+        <f t="shared" si="13"/>
         <v>16.763999999999999</v>
       </c>
       <c r="D13" s="1">
-        <f>+SUM(D10:D12)</f>
+        <f t="shared" si="13"/>
         <v>18.792999999999999</v>
       </c>
       <c r="E13" s="1">
-        <f>+SUM(E10:E12)</f>
+        <f t="shared" si="13"/>
         <v>20.059999999999999</v>
       </c>
       <c r="F13" s="1">
-        <f>+SUM(F10:F12)</f>
+        <f t="shared" si="13"/>
         <v>17.146999999999998</v>
       </c>
       <c r="G13" s="1">
-        <f>+SUM(G10:G12)</f>
+        <f t="shared" si="13"/>
         <v>16.983999999999998</v>
       </c>
       <c r="H13" s="1">
-        <f>+SUM(H10:H12)</f>
+        <f t="shared" si="13"/>
         <v>15.789000000000001</v>
       </c>
       <c r="I13" s="1">
-        <f>+SUM(I10:I12)</f>
+        <f t="shared" si="13"/>
         <v>16.664999999999999</v>
       </c>
       <c r="J13" s="1">
-        <f>+SUM(J10:J12)</f>
+        <f t="shared" si="13"/>
         <v>17.093999999999998</v>
       </c>
       <c r="K13" s="1">
-        <f>+SUM(K10:K12)</f>
+        <f t="shared" si="13"/>
         <v>18.11</v>
       </c>
       <c r="L13" s="1">
-        <f>+SUM(L10:L12)</f>
+        <f t="shared" si="13"/>
         <v>19.992999999999999</v>
       </c>
       <c r="M13" s="1">
-        <f>+SUM(M10:M12)</f>
+        <f t="shared" si="13"/>
         <v>19.971999999999998</v>
       </c>
       <c r="N13" s="1"/>
@@ -1664,27 +1671,27 @@
         <v>75.169000000000011</v>
       </c>
       <c r="X13" s="1">
-        <f t="shared" ref="X13:AC13" si="9">+W13</f>
+        <f t="shared" ref="X13:AC13" si="14">+W13</f>
         <v>75.169000000000011</v>
       </c>
       <c r="Y13" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>75.169000000000011</v>
       </c>
       <c r="Z13" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>75.169000000000011</v>
       </c>
       <c r="AA13" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>75.169000000000011</v>
       </c>
       <c r="AB13" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>75.169000000000011</v>
       </c>
       <c r="AC13" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>75.169000000000011</v>
       </c>
       <c r="AD13" s="1"/>
@@ -1693,94 +1700,94 @@
       <c r="AG13" s="1"/>
       <c r="AH13" s="1"/>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>30</v>
       </c>
       <c r="B14" s="1">
-        <f>+B9-B13</f>
+        <f t="shared" ref="B14:M14" si="15">+B9-B13</f>
         <v>-14.635292</v>
       </c>
       <c r="C14" s="1">
-        <f>+C9-C13</f>
+        <f t="shared" si="15"/>
         <v>-8.9942901000000006</v>
       </c>
       <c r="D14" s="1">
-        <f>+D9-D13</f>
+        <f t="shared" si="15"/>
         <v>-9.1362919999999974</v>
       </c>
       <c r="E14" s="1">
-        <f>+E9-E13</f>
+        <f t="shared" si="15"/>
         <v>-5.8841258999999901</v>
       </c>
       <c r="F14" s="1">
-        <f>+F9-F13</f>
+        <f t="shared" si="15"/>
         <v>-0.63400000000000034</v>
       </c>
       <c r="G14" s="1">
-        <f>+G9-G13</f>
+        <f t="shared" si="15"/>
         <v>-0.29400000000000048</v>
       </c>
       <c r="H14" s="1">
-        <f>+H9-H13</f>
+        <f t="shared" si="15"/>
         <v>8.8640000000000043</v>
       </c>
       <c r="I14" s="1">
-        <f>+I9-I13</f>
+        <f t="shared" si="15"/>
         <v>14.421999999999997</v>
       </c>
       <c r="J14" s="1">
-        <f>+J9-J13</f>
+        <f t="shared" si="15"/>
         <v>22.013999999999999</v>
       </c>
       <c r="K14" s="1">
-        <f>+K9-K13</f>
+        <f t="shared" si="15"/>
         <v>39.343000000000004</v>
       </c>
       <c r="L14" s="1">
-        <f>+L9-L13</f>
+        <f t="shared" si="15"/>
         <v>39.665999999999997</v>
       </c>
       <c r="M14" s="1">
-        <f>+M9-M13</f>
+        <f t="shared" si="15"/>
         <v>42.811999999999998</v>
       </c>
       <c r="N14" s="1"/>
       <c r="U14" s="1">
-        <f>+U9-U13</f>
+        <f t="shared" ref="U14:AC14" si="16">+U9-U13</f>
         <v>-38.649999999999991</v>
       </c>
       <c r="V14" s="1">
-        <f>+V9-V13</f>
+        <f t="shared" si="16"/>
         <v>22.358000000000004</v>
       </c>
       <c r="W14" s="1">
-        <f>+W9-W13</f>
+        <f t="shared" si="16"/>
         <v>143.83499999999995</v>
       </c>
       <c r="X14" s="1">
-        <f>+X9-X13</f>
-        <v>169.83099999999999</v>
+        <f t="shared" si="16"/>
+        <v>270.87881249999998</v>
       </c>
       <c r="Y14" s="1">
-        <f>+Y9-Y13</f>
-        <v>318.08100000000002</v>
+        <f t="shared" si="16"/>
+        <v>357.39076562499997</v>
       </c>
       <c r="Z14" s="1">
-        <f>+Z9-Z13</f>
-        <v>396.73099999999999</v>
+        <f t="shared" si="16"/>
+        <v>465.53070703125002</v>
       </c>
       <c r="AA14" s="1">
-        <f>+AA9-AA13</f>
-        <v>491.11099999999999</v>
+        <f t="shared" si="16"/>
+        <v>573.67064843749984</v>
       </c>
       <c r="AB14" s="1">
-        <f>+AB9-AB13</f>
-        <v>576.053</v>
+        <f t="shared" si="16"/>
+        <v>703.43857812499982</v>
       </c>
       <c r="AC14" s="1">
-        <f>+AC9-AC13</f>
-        <v>673.73629999999991</v>
+        <f t="shared" si="16"/>
+        <v>859.16009374999976</v>
       </c>
       <c r="AD14" s="1"/>
       <c r="AE14" s="1"/>
@@ -1788,7 +1795,7 @@
       <c r="AG14" s="1"/>
       <c r="AH14" s="1"/>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -1850,32 +1857,32 @@
         <v>-23.696999999999999</v>
       </c>
       <c r="W15" s="1">
-        <f t="shared" ref="W15" si="10">+SUM(J15:M15)</f>
+        <f t="shared" ref="W15" si="17">+SUM(J15:M15)</f>
         <v>-12.026</v>
       </c>
       <c r="X15" s="1">
-        <f>+W31*0.03</f>
-        <v>5.281559999999998</v>
+        <f>+W31*$P$22</f>
+        <v>7.0420799999999977</v>
       </c>
       <c r="Y15" s="1">
-        <f t="shared" ref="Y15:AC15" si="11">+X31*0.03</f>
-        <v>9.4842614399999974</v>
+        <f t="shared" ref="Y15:AC15" si="18">+X31*$P$22</f>
+        <v>17.877232499999995</v>
       </c>
       <c r="Z15" s="1">
-        <f t="shared" si="11"/>
-        <v>17.345827714559999</v>
+        <f t="shared" si="18"/>
+        <v>32.887952424999995</v>
       </c>
       <c r="AA15" s="1">
-        <f t="shared" si="11"/>
-        <v>27.283671579709441</v>
+        <f t="shared" si="18"/>
+        <v>52.824698803249994</v>
       </c>
       <c r="AB15" s="1">
-        <f t="shared" si="11"/>
-        <v>39.725143697622464</v>
+        <f t="shared" si="18"/>
+        <v>77.884512692879994</v>
       </c>
       <c r="AC15" s="1">
-        <f t="shared" si="11"/>
-        <v>54.503819146365409</v>
+        <f t="shared" si="18"/>
+        <v>109.13743632559519</v>
       </c>
       <c r="AD15" s="1"/>
       <c r="AE15" s="1"/>
@@ -1883,94 +1890,94 @@
       <c r="AG15" s="1"/>
       <c r="AH15" s="1"/>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>32</v>
       </c>
       <c r="B16" s="1">
-        <f>+B14+B15</f>
+        <f t="shared" ref="B16:H16" si="19">+B14+B15</f>
         <v>-24.826224</v>
       </c>
       <c r="C16" s="1">
-        <f>+C14+C15</f>
+        <f t="shared" si="19"/>
         <v>-13.584711100000002</v>
       </c>
       <c r="D16" s="1">
-        <f>+D14+D15</f>
+        <f t="shared" si="19"/>
         <v>-14.709291999999998</v>
       </c>
       <c r="E16" s="1">
-        <f>+E14+E15</f>
+        <f t="shared" si="19"/>
         <v>-11.49633989999999</v>
       </c>
       <c r="F16" s="1">
-        <f>+F14+F15</f>
+        <f t="shared" si="19"/>
         <v>-6.61</v>
       </c>
       <c r="G16" s="1">
-        <f>+G14+G15</f>
+        <f t="shared" si="19"/>
         <v>-6.1920000000000011</v>
       </c>
       <c r="H16" s="1">
-        <f>+H14+H15</f>
+        <f t="shared" si="19"/>
         <v>2.7440000000000051</v>
       </c>
       <c r="I16" s="1">
-        <f t="shared" ref="I16:M16" si="12">+I14+I15</f>
+        <f t="shared" ref="I16:M16" si="20">+I14+I15</f>
         <v>8.7179999999999964</v>
       </c>
       <c r="J16" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>18.593999999999998</v>
       </c>
       <c r="K16" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>35.993000000000002</v>
       </c>
       <c r="L16" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>36.776999999999994</v>
       </c>
       <c r="M16" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>40.445</v>
       </c>
       <c r="N16" s="1"/>
       <c r="U16" s="1">
-        <f>+U14+U15</f>
+        <f t="shared" ref="U16:AC16" si="21">+U14+U15</f>
         <v>-64.616567000000003</v>
       </c>
       <c r="V16" s="1">
-        <f>+V14+V15</f>
+        <f t="shared" si="21"/>
         <v>-1.3389999999999951</v>
       </c>
       <c r="W16" s="1">
-        <f>+W14+W15</f>
+        <f t="shared" si="21"/>
         <v>131.80899999999994</v>
       </c>
       <c r="X16" s="1">
-        <f>+X14+X15</f>
-        <v>175.11255999999997</v>
+        <f t="shared" si="21"/>
+        <v>277.92089249999998</v>
       </c>
       <c r="Y16" s="1">
-        <f>+Y14+Y15</f>
-        <v>327.56526144000003</v>
+        <f t="shared" si="21"/>
+        <v>375.26799812499996</v>
       </c>
       <c r="Z16" s="1">
-        <f>+Z14+Z15</f>
-        <v>414.07682771456001</v>
+        <f t="shared" si="21"/>
+        <v>498.41865945625</v>
       </c>
       <c r="AA16" s="1">
-        <f>+AA14+AA15</f>
-        <v>518.39467157970944</v>
+        <f t="shared" si="21"/>
+        <v>626.49534724074988</v>
       </c>
       <c r="AB16" s="1">
-        <f>+AB14+AB15</f>
-        <v>615.77814369762245</v>
+        <f t="shared" si="21"/>
+        <v>781.3230908178798</v>
       </c>
       <c r="AC16" s="1">
-        <f>+AC14+AC15</f>
-        <v>728.24011914636537</v>
+        <f t="shared" si="21"/>
+        <v>968.29753007559498</v>
       </c>
       <c r="AD16" s="1"/>
       <c r="AE16" s="1"/>
@@ -2032,28 +2039,28 @@
         <v>6.0640000000000001</v>
       </c>
       <c r="X17" s="1">
-        <f>+X16*0.2</f>
-        <v>35.022511999999999</v>
+        <f>+W31*P22</f>
+        <v>7.0420799999999977</v>
       </c>
       <c r="Y17" s="1">
-        <f t="shared" ref="Y17:AC17" si="13">+Y16*0.2</f>
-        <v>65.513052288000011</v>
+        <f t="shared" ref="Y17:AC17" si="22">+X31*Q22</f>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <f t="shared" si="13"/>
-        <v>82.815365542912005</v>
+        <f t="shared" si="22"/>
+        <v>0</v>
       </c>
       <c r="AA17" s="1">
-        <f t="shared" si="13"/>
-        <v>103.67893431594189</v>
+        <f t="shared" si="22"/>
+        <v>0</v>
       </c>
       <c r="AB17" s="1">
-        <f t="shared" si="13"/>
-        <v>123.1556287395245</v>
+        <f t="shared" si="22"/>
+        <v>0</v>
       </c>
       <c r="AC17" s="1">
-        <f t="shared" si="13"/>
-        <v>145.64802382927309</v>
+        <f t="shared" si="22"/>
+        <v>0</v>
       </c>
       <c r="AD17" s="1"/>
       <c r="AE17" s="1"/>
@@ -2061,201 +2068,201 @@
       <c r="AG17" s="1"/>
       <c r="AH17" s="1"/>
     </row>
-    <row r="18" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
+    <row r="18" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="13">
-        <f t="shared" ref="B18:L18" si="14">+B16-B17</f>
+      <c r="B18" s="11">
+        <f t="shared" ref="B18:L18" si="23">+B16-B17</f>
         <v>-24.826224</v>
       </c>
-      <c r="C18" s="13">
-        <f t="shared" si="14"/>
+      <c r="C18" s="11">
+        <f t="shared" si="23"/>
         <v>-13.584711100000002</v>
       </c>
-      <c r="D18" s="13">
-        <f t="shared" si="14"/>
+      <c r="D18" s="11">
+        <f t="shared" si="23"/>
         <v>-14.709291999999998</v>
       </c>
-      <c r="E18" s="13">
-        <f t="shared" si="14"/>
+      <c r="E18" s="11">
+        <f t="shared" si="23"/>
         <v>-11.49633989999999</v>
       </c>
-      <c r="F18" s="13">
-        <f t="shared" si="14"/>
+      <c r="F18" s="11">
+        <f t="shared" si="23"/>
         <v>-6.61</v>
       </c>
-      <c r="G18" s="13">
-        <f t="shared" si="14"/>
+      <c r="G18" s="11">
+        <f t="shared" si="23"/>
         <v>-6.1920000000000011</v>
       </c>
-      <c r="H18" s="13">
-        <f t="shared" si="14"/>
+      <c r="H18" s="11">
+        <f t="shared" si="23"/>
         <v>2.7440000000000051</v>
       </c>
-      <c r="I18" s="13">
-        <f t="shared" si="14"/>
+      <c r="I18" s="11">
+        <f t="shared" si="23"/>
         <v>8.7179999999999964</v>
       </c>
-      <c r="J18" s="13">
-        <f t="shared" si="14"/>
+      <c r="J18" s="11">
+        <f t="shared" si="23"/>
         <v>17.998999999999999</v>
       </c>
-      <c r="K18" s="13">
-        <f t="shared" si="14"/>
+      <c r="K18" s="11">
+        <f t="shared" si="23"/>
         <v>32.204000000000001</v>
       </c>
-      <c r="L18" s="13">
-        <f t="shared" si="14"/>
+      <c r="L18" s="11">
+        <f t="shared" si="23"/>
         <v>35.936999999999991</v>
       </c>
-      <c r="M18" s="13">
-        <f t="shared" ref="M18" si="15">+M16-M17</f>
+      <c r="M18" s="11">
+        <f t="shared" ref="M18" si="24">+M16-M17</f>
         <v>39.604999999999997</v>
       </c>
-      <c r="N18" s="13"/>
-      <c r="R18" s="12" t="s">
+      <c r="N18" s="11"/>
+      <c r="R18" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="U18" s="13">
+      <c r="U18" s="11">
         <f>+U16-U17</f>
         <v>-64.616567000000003</v>
       </c>
-      <c r="V18" s="13">
+      <c r="V18" s="11">
         <f>+V16-V17</f>
         <v>-1.3389999999999951</v>
       </c>
-      <c r="W18" s="13">
-        <f t="shared" ref="W18:AC18" si="16">+W16-W17</f>
+      <c r="W18" s="11">
+        <f t="shared" ref="W18:AC18" si="25">+W16-W17</f>
         <v>125.74499999999995</v>
       </c>
-      <c r="X18" s="13">
-        <f t="shared" si="16"/>
-        <v>140.09004799999997</v>
-      </c>
-      <c r="Y18" s="13">
-        <f t="shared" si="16"/>
-        <v>262.05220915200005</v>
-      </c>
-      <c r="Z18" s="13">
-        <f t="shared" si="16"/>
-        <v>331.26146217164802</v>
-      </c>
-      <c r="AA18" s="13">
-        <f t="shared" si="16"/>
-        <v>414.71573726376755</v>
-      </c>
-      <c r="AB18" s="13">
-        <f t="shared" si="16"/>
-        <v>492.62251495809795</v>
-      </c>
-      <c r="AC18" s="13">
-        <f t="shared" si="16"/>
-        <v>582.59209531709234</v>
-      </c>
-      <c r="AD18" s="13">
-        <f>+AC18*0.98</f>
-        <v>570.94025341075053</v>
-      </c>
-      <c r="AE18" s="13">
-        <f t="shared" ref="AE18:BC18" si="17">+AD18*0.99</f>
-        <v>565.23085087664299</v>
-      </c>
-      <c r="AF18" s="13">
-        <f t="shared" si="17"/>
-        <v>559.57854236787659</v>
-      </c>
-      <c r="AG18" s="13">
-        <f t="shared" si="17"/>
-        <v>553.98275694419783</v>
-      </c>
-      <c r="AH18" s="13">
-        <f t="shared" si="17"/>
-        <v>548.44292937475586</v>
-      </c>
-      <c r="AI18" s="13">
-        <f t="shared" si="17"/>
-        <v>542.95850008100831</v>
-      </c>
-      <c r="AJ18" s="13">
-        <f t="shared" si="17"/>
-        <v>537.5289150801982</v>
-      </c>
-      <c r="AK18" s="13">
-        <f t="shared" si="17"/>
-        <v>532.15362592939618</v>
-      </c>
-      <c r="AL18" s="13">
-        <f t="shared" si="17"/>
-        <v>526.83208967010216</v>
-      </c>
-      <c r="AM18" s="13">
-        <f t="shared" si="17"/>
-        <v>521.56376877340119</v>
-      </c>
-      <c r="AN18" s="13">
-        <f t="shared" si="17"/>
-        <v>516.34813108566721</v>
-      </c>
-      <c r="AO18" s="13">
-        <f t="shared" si="17"/>
-        <v>511.18464977481051</v>
-      </c>
-      <c r="AP18" s="13">
-        <f t="shared" si="17"/>
-        <v>506.07280327706241</v>
-      </c>
-      <c r="AQ18" s="13">
-        <f t="shared" si="17"/>
-        <v>501.01207524429179</v>
-      </c>
-      <c r="AR18" s="13">
-        <f t="shared" si="17"/>
-        <v>496.00195449184889</v>
-      </c>
-      <c r="AS18" s="13">
-        <f t="shared" si="17"/>
-        <v>491.04193494693038</v>
-      </c>
-      <c r="AT18" s="13">
-        <f t="shared" si="17"/>
-        <v>486.13151559746109</v>
-      </c>
-      <c r="AU18" s="13">
-        <f t="shared" si="17"/>
-        <v>481.27020044148645</v>
-      </c>
-      <c r="AV18" s="13">
-        <f t="shared" si="17"/>
-        <v>476.45749843707159</v>
-      </c>
-      <c r="AW18" s="13">
-        <f t="shared" si="17"/>
-        <v>471.69292345270088</v>
-      </c>
-      <c r="AX18" s="13">
-        <f t="shared" si="17"/>
-        <v>466.97599421817387</v>
-      </c>
-      <c r="AY18" s="13">
-        <f t="shared" si="17"/>
-        <v>462.3062342759921</v>
-      </c>
-      <c r="AZ18" s="13">
-        <f t="shared" si="17"/>
-        <v>457.68317193323219</v>
-      </c>
-      <c r="BA18" s="13">
-        <f t="shared" si="17"/>
-        <v>453.10634021389984</v>
-      </c>
-      <c r="BB18" s="13">
-        <f t="shared" si="17"/>
-        <v>448.57527681176083</v>
-      </c>
-      <c r="BC18" s="13">
-        <f t="shared" si="17"/>
-        <v>444.08952404364322</v>
+      <c r="X18" s="11">
+        <f t="shared" si="25"/>
+        <v>270.87881249999998</v>
+      </c>
+      <c r="Y18" s="11">
+        <f t="shared" si="25"/>
+        <v>375.26799812499996</v>
+      </c>
+      <c r="Z18" s="11">
+        <f t="shared" si="25"/>
+        <v>498.41865945625</v>
+      </c>
+      <c r="AA18" s="11">
+        <f t="shared" si="25"/>
+        <v>626.49534724074988</v>
+      </c>
+      <c r="AB18" s="11">
+        <f t="shared" si="25"/>
+        <v>781.3230908178798</v>
+      </c>
+      <c r="AC18" s="11">
+        <f t="shared" si="25"/>
+        <v>968.29753007559498</v>
+      </c>
+      <c r="AD18" s="11">
+        <f>+AC18*0.99</f>
+        <v>958.61455477483901</v>
+      </c>
+      <c r="AE18" s="11">
+        <f t="shared" ref="AE18:BC18" si="26">+AD18*0.99</f>
+        <v>949.02840922709061</v>
+      </c>
+      <c r="AF18" s="11">
+        <f t="shared" si="26"/>
+        <v>939.53812513481967</v>
+      </c>
+      <c r="AG18" s="11">
+        <f t="shared" si="26"/>
+        <v>930.14274388347144</v>
+      </c>
+      <c r="AH18" s="11">
+        <f t="shared" si="26"/>
+        <v>920.84131644463673</v>
+      </c>
+      <c r="AI18" s="11">
+        <f t="shared" si="26"/>
+        <v>911.63290328019036</v>
+      </c>
+      <c r="AJ18" s="11">
+        <f t="shared" si="26"/>
+        <v>902.51657424738846</v>
+      </c>
+      <c r="AK18" s="11">
+        <f t="shared" si="26"/>
+        <v>893.4914085049146</v>
+      </c>
+      <c r="AL18" s="11">
+        <f t="shared" si="26"/>
+        <v>884.55649441986543</v>
+      </c>
+      <c r="AM18" s="11">
+        <f t="shared" si="26"/>
+        <v>875.71092947566672</v>
+      </c>
+      <c r="AN18" s="11">
+        <f t="shared" si="26"/>
+        <v>866.95382018091004</v>
+      </c>
+      <c r="AO18" s="11">
+        <f t="shared" si="26"/>
+        <v>858.28428197910091</v>
+      </c>
+      <c r="AP18" s="11">
+        <f t="shared" si="26"/>
+        <v>849.70143915930987</v>
+      </c>
+      <c r="AQ18" s="11">
+        <f t="shared" si="26"/>
+        <v>841.20442476771677</v>
+      </c>
+      <c r="AR18" s="11">
+        <f t="shared" si="26"/>
+        <v>832.79238052003961</v>
+      </c>
+      <c r="AS18" s="11">
+        <f t="shared" si="26"/>
+        <v>824.46445671483923</v>
+      </c>
+      <c r="AT18" s="11">
+        <f t="shared" si="26"/>
+        <v>816.21981214769085</v>
+      </c>
+      <c r="AU18" s="11">
+        <f t="shared" si="26"/>
+        <v>808.05761402621397</v>
+      </c>
+      <c r="AV18" s="11">
+        <f t="shared" si="26"/>
+        <v>799.97703788595186</v>
+      </c>
+      <c r="AW18" s="11">
+        <f t="shared" si="26"/>
+        <v>791.97726750709228</v>
+      </c>
+      <c r="AX18" s="11">
+        <f t="shared" si="26"/>
+        <v>784.05749483202135</v>
+      </c>
+      <c r="AY18" s="11">
+        <f t="shared" si="26"/>
+        <v>776.21691988370117</v>
+      </c>
+      <c r="AZ18" s="11">
+        <f t="shared" si="26"/>
+        <v>768.45475068486417</v>
+      </c>
+      <c r="BA18" s="11">
+        <f t="shared" si="26"/>
+        <v>760.77020317801555</v>
+      </c>
+      <c r="BB18" s="11">
+        <f t="shared" si="26"/>
+        <v>753.1625011462354</v>
+      </c>
+      <c r="BC18" s="11">
+        <f t="shared" si="26"/>
+        <v>745.63087613477308</v>
       </c>
     </row>
     <row r="19" spans="1:55" x14ac:dyDescent="0.25">
@@ -2263,51 +2270,51 @@
         <v>35</v>
       </c>
       <c r="B19" s="7">
-        <f t="shared" ref="B19:L19" si="18">+B18/B20</f>
+        <f t="shared" ref="B19:L19" si="27">+B18/B20</f>
         <v>-0.12674782892822317</v>
       </c>
       <c r="C19" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>-6.9185146649147211E-2</v>
       </c>
       <c r="D19" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>-7.4901045406170583E-2</v>
       </c>
       <c r="E19" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>-5.8099295005912807E-2</v>
       </c>
       <c r="F19" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>-2.9785273412813302E-2</v>
       </c>
       <c r="G19" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>-2.7806343546656013E-2</v>
       </c>
       <c r="H19" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>1.1697950727071995E-2</v>
       </c>
       <c r="I19" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>3.9284117036748299E-2</v>
       </c>
       <c r="J19" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>7.8641232253887638E-2</v>
       </c>
       <c r="K19" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>0.13856129284862984</v>
       </c>
       <c r="L19" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>0.15320308136981975</v>
       </c>
       <c r="M19" s="7">
-        <f t="shared" ref="M19" si="19">+M18/M20</f>
+        <f t="shared" ref="M19" si="28">+M18/M20</f>
         <v>0.16886146348864259</v>
       </c>
       <c r="N19" s="1"/>
@@ -2324,28 +2331,28 @@
         <v>0.55818598986236212</v>
       </c>
       <c r="X19" s="7">
-        <f t="shared" ref="X19:AC19" si="20">+X18/X20</f>
-        <v>0.62186410682528792</v>
+        <f t="shared" ref="X19:AC19" si="29">+X18/X20</f>
+        <v>1.2024395251346274</v>
       </c>
       <c r="Y19" s="7">
-        <f t="shared" si="20"/>
-        <v>1.1632579566672865</v>
+        <f t="shared" si="29"/>
+        <v>1.6658263867117598</v>
       </c>
       <c r="Z19" s="7">
-        <f t="shared" si="20"/>
-        <v>1.4704799965448712</v>
+        <f t="shared" si="29"/>
+        <v>2.2124960260404674</v>
       </c>
       <c r="AA19" s="7">
-        <f t="shared" si="20"/>
-        <v>1.840936135163032</v>
+        <f t="shared" si="29"/>
+        <v>2.7810324509423228</v>
       </c>
       <c r="AB19" s="7">
-        <f t="shared" si="20"/>
-        <v>2.1867667592379201</v>
+        <f t="shared" si="29"/>
+        <v>3.4683176496122998</v>
       </c>
       <c r="AC19" s="7">
-        <f t="shared" si="20"/>
-        <v>2.5861445418152527</v>
+        <f t="shared" si="29"/>
+        <v>4.2983030363555335</v>
       </c>
       <c r="AD19" s="1"/>
       <c r="AE19" s="1"/>
@@ -2407,27 +2414,27 @@
         <v>225.27437499999999</v>
       </c>
       <c r="X20" s="1">
-        <f t="shared" ref="X20:AC20" si="21">+W20</f>
+        <f t="shared" ref="X20:AC20" si="30">+W20</f>
         <v>225.27437499999999</v>
       </c>
       <c r="Y20" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v>225.27437499999999</v>
       </c>
       <c r="Z20" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v>225.27437499999999</v>
       </c>
       <c r="AA20" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v>225.27437499999999</v>
       </c>
       <c r="AB20" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v>225.27437499999999</v>
       </c>
       <c r="AC20" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v>225.27437499999999</v>
       </c>
       <c r="AD20" s="1"/>
@@ -2449,54 +2456,60 @@
         <v>37</v>
       </c>
       <c r="B22" s="3">
-        <f>+B9/B7</f>
+        <f t="shared" ref="B22:M22" si="31">+B9/B7</f>
         <v>0.12582018140717355</v>
       </c>
       <c r="C22" s="3">
-        <f>+C9/C7</f>
+        <f t="shared" si="31"/>
         <v>0.2291631434958834</v>
       </c>
       <c r="D22" s="3">
-        <f>+D9/D7</f>
+        <f t="shared" si="31"/>
         <v>0.23501525004753018</v>
       </c>
       <c r="E22" s="3">
-        <f>+E9/E7</f>
+        <f t="shared" si="31"/>
         <v>0.28362597404033812</v>
       </c>
       <c r="F22" s="3">
-        <f>+F9/F7</f>
+        <f t="shared" si="31"/>
         <v>0.29013950873247352</v>
       </c>
       <c r="G22" s="3">
-        <f>+G9/G7</f>
+        <f t="shared" si="31"/>
         <v>0.2775975916038787</v>
       </c>
       <c r="H22" s="3">
-        <f>+H9/H7</f>
+        <f t="shared" si="31"/>
         <v>0.36645113340765523</v>
       </c>
       <c r="I22" s="3">
-        <f>+I9/I7</f>
+        <f t="shared" si="31"/>
         <v>0.42064029010608356</v>
       </c>
       <c r="J22" s="3">
-        <f>+J9/J7</f>
+        <f t="shared" si="31"/>
         <v>0.47765496183206102</v>
       </c>
       <c r="K22" s="3">
-        <f>+K9/K7</f>
+        <f t="shared" si="31"/>
         <v>0.53598716310137984</v>
       </c>
       <c r="L22" s="3">
-        <f>+L9/L7</f>
+        <f t="shared" si="31"/>
         <v>0.49782625021904386</v>
       </c>
       <c r="M22" s="3">
-        <f>+M9/M7</f>
+        <f t="shared" si="31"/>
         <v>0.53661538461538461</v>
       </c>
       <c r="N22" s="3"/>
+      <c r="O22" t="s">
+        <v>102</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0.04</v>
+      </c>
       <c r="U22" s="3"/>
       <c r="V22" s="3"/>
       <c r="W22" s="3"/>
@@ -2517,51 +2530,51 @@
         <v>39</v>
       </c>
       <c r="B23" s="3">
-        <f>+B10/B7</f>
+        <f t="shared" ref="B23:M23" si="32">+B10/B7</f>
         <v>2.1441303675245615E-2</v>
       </c>
       <c r="C23" s="3">
-        <f>+C10/C7</f>
+        <f t="shared" si="32"/>
         <v>2.5748635000118376E-2</v>
       </c>
       <c r="D23" s="3">
-        <f>+D10/D7</f>
+        <f t="shared" si="32"/>
         <v>2.5334811335237521E-2</v>
       </c>
       <c r="E23" s="3">
-        <f>+E10/E7</f>
+        <f t="shared" si="32"/>
         <v>2.1508227284084257E-2</v>
       </c>
       <c r="F23" s="3">
-        <f>+F10/F7</f>
+        <f t="shared" si="32"/>
         <v>1.5022665776434621E-2</v>
       </c>
       <c r="G23" s="3">
-        <f>+G10/G7</f>
+        <f t="shared" si="32"/>
         <v>2.3335495567420123E-2</v>
       </c>
       <c r="H23" s="3">
-        <f>+H10/H7</f>
+        <f t="shared" si="32"/>
         <v>8.859160163507988E-3</v>
       </c>
       <c r="I23" s="3">
-        <f>+I10/I7</f>
+        <f t="shared" si="32"/>
         <v>6.0213249621130114E-3</v>
       </c>
       <c r="J23" s="3">
-        <f>+J10/J7</f>
+        <f t="shared" si="32"/>
         <v>5.4961832061068703E-3</v>
       </c>
       <c r="K23" s="3">
-        <f>+K10/K7</f>
+        <f t="shared" si="32"/>
         <v>5.2243192059034807E-3</v>
       </c>
       <c r="L23" s="3">
-        <f>+L10/L7</f>
+        <f t="shared" si="32"/>
         <v>3.4379459107636077E-3</v>
       </c>
       <c r="M23" s="3">
-        <f>+M10/M7</f>
+        <f t="shared" si="32"/>
         <v>3.3418803418803419E-3</v>
       </c>
       <c r="N23" s="3"/>
@@ -2572,39 +2585,39 @@
         <v>0.09</v>
       </c>
       <c r="U23" s="3">
-        <f>+U9/U7</f>
+        <f t="shared" ref="U23:AC23" si="33">+U9/U7</f>
         <v>0.22887109126546301</v>
       </c>
       <c r="V23" s="3">
-        <f>+V9/V7</f>
+        <f t="shared" si="33"/>
         <v>0.34445193171608268</v>
       </c>
       <c r="W23" s="3">
-        <f>+W9/W7</f>
+        <f t="shared" si="33"/>
         <v>0.51420856763832301</v>
       </c>
       <c r="X23" s="3">
-        <f>+X9/X7</f>
-        <v>0.5</v>
+        <f t="shared" si="33"/>
+        <v>0.65</v>
       </c>
       <c r="Y23" s="3">
-        <f>+Y9/Y7</f>
+        <f t="shared" si="33"/>
         <v>0.65</v>
       </c>
       <c r="Z23" s="3">
-        <f>+Z9/Z7</f>
+        <f t="shared" si="33"/>
+        <v>0.65000000000000013</v>
+      </c>
+      <c r="AA23" s="3">
+        <f t="shared" si="33"/>
+        <v>0.64999999999999991</v>
+      </c>
+      <c r="AB23" s="3">
+        <f t="shared" si="33"/>
         <v>0.65</v>
       </c>
-      <c r="AA23" s="3">
-        <f>+AA9/AA7</f>
-        <v>0.65</v>
-      </c>
-      <c r="AB23" s="3">
-        <f>+AB9/AB7</f>
-        <v>0.65</v>
-      </c>
       <c r="AC23" s="3">
-        <f>+AC9/AC7</f>
+        <f t="shared" si="33"/>
         <v>0.65</v>
       </c>
       <c r="AD23" s="3"/>
@@ -2618,51 +2631,51 @@
         <v>41</v>
       </c>
       <c r="B24" s="3">
-        <f>+B11/B7</f>
+        <f t="shared" ref="B24:M24" si="34">+B11/B7</f>
         <v>0.13655086667536231</v>
       </c>
       <c r="C24" s="3">
-        <f>+C11/C7</f>
+        <f t="shared" si="34"/>
         <v>0.11564764929606432</v>
       </c>
       <c r="D24" s="3">
-        <f>+D11/D7</f>
+        <f t="shared" si="34"/>
         <v>0.11825345655900012</v>
       </c>
       <c r="E24" s="3">
-        <f>+E11/E7</f>
+        <f t="shared" si="34"/>
         <v>0.10181894758019049</v>
       </c>
       <c r="F24" s="3">
-        <f>+F11/F7</f>
+        <f t="shared" si="34"/>
         <v>3.1275257405910674E-2</v>
       </c>
       <c r="G24" s="3">
-        <f>+G11/G7</f>
+        <f t="shared" si="34"/>
         <v>2.2171215674533871E-2</v>
       </c>
       <c r="H24" s="3">
-        <f>+H11/H7</f>
+        <f t="shared" si="34"/>
         <v>6.9416573764399846E-3</v>
       </c>
       <c r="I24" s="3">
-        <f>+I11/I7</f>
+        <f t="shared" si="34"/>
         <v>9.268781121454862E-3</v>
       </c>
       <c r="J24" s="3">
-        <f>+J11/J7</f>
+        <f t="shared" si="34"/>
         <v>1.2274809160305343E-2</v>
       </c>
       <c r="K24" s="3">
-        <f>+K11/K7</f>
+        <f t="shared" si="34"/>
         <v>8.788051235644783E-3</v>
       </c>
       <c r="L24" s="3">
-        <f>+L11/L7</f>
+        <f t="shared" si="34"/>
         <v>8.5197640167224351E-3</v>
       </c>
       <c r="M24" s="3">
-        <f>+M11/M7</f>
+        <f t="shared" si="34"/>
         <v>8.7264957264957255E-3</v>
       </c>
       <c r="N24" s="3"/>
@@ -2671,43 +2684,43 @@
       </c>
       <c r="P24" s="4">
         <f>+NPV(P23,W18:BA18)-main!L5+main!L6</f>
-        <v>4350.9646732067522</v>
+        <v>7097.7634385420743</v>
       </c>
       <c r="U24" s="3">
-        <f>+U10/U7</f>
+        <f t="shared" ref="U24:AC24" si="35">+U10/U7</f>
         <v>2.3449162112696167E-2</v>
       </c>
       <c r="V24" s="3">
-        <f>+V10/V7</f>
+        <f t="shared" si="35"/>
         <v>1.2776125414381757E-2</v>
       </c>
       <c r="W24" s="3">
-        <f>+W10/W7</f>
+        <f t="shared" si="35"/>
         <v>4.2568178349631962E-3</v>
       </c>
       <c r="X24" s="3">
-        <f>+X10/X7</f>
-        <v>4.0700000000000007E-3</v>
+        <f t="shared" si="35"/>
+        <v>3.7459996947676135E-3</v>
       </c>
       <c r="Y24" s="3">
-        <f>+Y10/Y7</f>
-        <v>3.6260000000000008E-3</v>
+        <f t="shared" si="35"/>
+        <v>3.2964797313955003E-3</v>
       </c>
       <c r="Z24" s="3">
-        <f>+Z10/Z7</f>
-        <v>3.323833333333334E-3</v>
+        <f t="shared" si="35"/>
+        <v>2.9009021636280398E-3</v>
       </c>
       <c r="AA24" s="3">
-        <f>+AA10/AA7</f>
-        <v>3.0468472222222234E-3</v>
+        <f t="shared" si="35"/>
+        <v>2.6591603166590374E-3</v>
       </c>
       <c r="AB24" s="3">
-        <f>+AB10/AB7</f>
-        <v>2.9143756038647359E-3</v>
+        <f t="shared" si="35"/>
+        <v>2.4375636236041178E-3</v>
       </c>
       <c r="AC24" s="3">
-        <f>+AC10/AC7</f>
-        <v>2.7876636210880084E-3</v>
+        <f t="shared" si="35"/>
+        <v>2.2344333216371085E-3</v>
       </c>
       <c r="AD24" s="3"/>
       <c r="AE24" s="3"/>
@@ -2720,51 +2733,51 @@
         <v>43</v>
       </c>
       <c r="B25" s="3">
-        <f>+B12/B7</f>
+        <f t="shared" ref="B25:M25" si="36">+B12/B7</f>
         <v>0.47071221001152197</v>
       </c>
       <c r="C25" s="3">
-        <f>+C12/C7</f>
+        <f t="shared" si="36"/>
         <v>0.35304829433152002</v>
       </c>
       <c r="D25" s="3">
-        <f>+D12/D7</f>
+        <f t="shared" si="36"/>
         <v>0.31377687084074679</v>
       </c>
       <c r="E25" s="3">
-        <f>+E12/E7</f>
+        <f t="shared" si="36"/>
         <v>0.27802635008338117</v>
       </c>
       <c r="F25" s="3">
-        <f>+F12/F7</f>
+        <f t="shared" si="36"/>
         <v>0.25498119970481781</v>
       </c>
       <c r="G25" s="3">
-        <f>+G12/G7</f>
+        <f t="shared" si="36"/>
         <v>0.23698085591204696</v>
       </c>
       <c r="H25" s="3">
-        <f>+H12/H7</f>
+        <f t="shared" si="36"/>
         <v>0.21889260497956151</v>
       </c>
       <c r="I25" s="3">
-        <f>+I12/I7</f>
+        <f t="shared" si="36"/>
         <v>0.21020513098073176</v>
       </c>
       <c r="J25" s="3">
-        <f>+J12/J7</f>
+        <f t="shared" si="36"/>
         <v>0.19101068702290075</v>
       </c>
       <c r="K25" s="3">
-        <f>+K12/K7</f>
+        <f t="shared" si="36"/>
         <v>0.15493838102079466</v>
       </c>
       <c r="L25" s="3">
-        <f>+L12/L7</f>
+        <f t="shared" si="36"/>
         <v>0.15487445656255475</v>
       </c>
       <c r="M25" s="3">
-        <f>+M12/M7</f>
+        <f t="shared" si="36"/>
         <v>0.15863247863247862</v>
       </c>
       <c r="N25" s="3"/>
@@ -2773,43 +2786,43 @@
       </c>
       <c r="P25" s="5">
         <f>+P24/main!L3</f>
-        <v>18.405854801495355</v>
+        <v>30.025618012863138</v>
       </c>
       <c r="U25" s="3">
-        <f>+U11/U7</f>
+        <f t="shared" ref="U25:AC25" si="37">+U11/U7</f>
         <v>0.11580498189228831</v>
       </c>
       <c r="V25" s="3">
-        <f>+V11/V7</f>
+        <f t="shared" si="37"/>
         <v>1.6517179415682995E-2</v>
       </c>
       <c r="W25" s="3">
-        <f>+W11/W7</f>
+        <f t="shared" si="37"/>
         <v>9.3659384134959674E-3</v>
       </c>
       <c r="X25" s="3">
-        <f>+X11/X7</f>
-        <v>8.9548979591836733E-3</v>
+        <f t="shared" si="37"/>
+        <v>8.2420258038764533E-3</v>
       </c>
       <c r="Y25" s="3">
-        <f>+Y11/Y7</f>
-        <v>7.9780000000000007E-3</v>
+        <f t="shared" si="37"/>
+        <v>7.2529827074112787E-3</v>
       </c>
       <c r="Z25" s="3">
-        <f>+Z11/Z7</f>
-        <v>7.3131666666666675E-3</v>
+        <f t="shared" si="37"/>
+        <v>6.3826247825219257E-3</v>
       </c>
       <c r="AA25" s="3">
-        <f>+AA11/AA7</f>
-        <v>6.7037361111111126E-3</v>
+        <f t="shared" si="37"/>
+        <v>5.8507393839784321E-3</v>
       </c>
       <c r="AB25" s="3">
-        <f>+AB11/AB7</f>
-        <v>6.4122693236715001E-3</v>
+        <f t="shared" si="37"/>
+        <v>5.3631777686468972E-3</v>
       </c>
       <c r="AC25" s="3">
-        <f>+AC11/AC7</f>
-        <v>6.1334750052510012E-3</v>
+        <f t="shared" si="37"/>
+        <v>4.9162462879263234E-3</v>
       </c>
       <c r="AD25" s="3"/>
       <c r="AE25" s="3"/>
@@ -2822,51 +2835,51 @@
         <v>44</v>
       </c>
       <c r="B26" s="3">
-        <f>+B17/B16</f>
+        <f t="shared" ref="B26:M26" si="38">+B17/B16</f>
         <v>0</v>
       </c>
       <c r="C26" s="3">
-        <f>+C17/C16</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="D26" s="3">
-        <f>+D17/D16</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="E26" s="3">
-        <f>+E17/E16</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="F26" s="3">
-        <f>+F17/F16</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="G26" s="3">
-        <f>+G17/G16</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="H26" s="3">
-        <f>+H17/H16</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="I26" s="3">
-        <f>+I17/I16</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="J26" s="3">
-        <f>+J17/J16</f>
+        <f t="shared" si="38"/>
         <v>3.1999569753683989E-2</v>
       </c>
       <c r="K26" s="3">
-        <f>+K17/K16</f>
+        <f t="shared" si="38"/>
         <v>0.10527046925791125</v>
       </c>
       <c r="L26" s="3">
-        <f>+L17/L16</f>
+        <f t="shared" si="38"/>
         <v>2.2840362182886046E-2</v>
       </c>
       <c r="M26" s="3">
-        <f>+M17/M16</f>
+        <f t="shared" si="38"/>
         <v>2.0768945481518111E-2</v>
       </c>
       <c r="N26" s="3"/>
@@ -2875,43 +2888,43 @@
       </c>
       <c r="P26" s="3">
         <f>+P25/main!L2-1</f>
-        <v>0.1576009309116575</v>
+        <v>0.42979133394586366</v>
       </c>
       <c r="U26" s="3">
-        <f>+U12/U7</f>
+        <f t="shared" ref="U26:AC26" si="39">+U12/U7</f>
         <v>0.34046392087124699</v>
       </c>
       <c r="V26" s="3">
-        <f>+V12/V7</f>
+        <f t="shared" si="39"/>
         <v>0.22857220311677046</v>
       </c>
       <c r="W26" s="3">
-        <f>+W12/W7</f>
+        <f t="shared" si="39"/>
         <v>0.16286965403082848</v>
       </c>
       <c r="X26" s="3">
-        <f>+X12/X7</f>
-        <v>0.15572183673469389</v>
+        <f t="shared" si="39"/>
+        <v>0.14332529554712908</v>
       </c>
       <c r="Y26" s="3">
-        <f>+Y12/Y7</f>
-        <v>0.13873400000000002</v>
+        <f t="shared" si="39"/>
+        <v>0.12612626008147362</v>
       </c>
       <c r="Z26" s="3">
-        <f>+Z12/Z7</f>
-        <v>0.12717283333333337</v>
+        <f t="shared" si="39"/>
+        <v>0.11099110887169679</v>
       </c>
       <c r="AA26" s="3">
-        <f>+AA12/AA7</f>
-        <v>0.11657509722222227</v>
+        <f t="shared" si="39"/>
+        <v>0.1017418497990554</v>
       </c>
       <c r="AB26" s="3">
-        <f>+AB12/AB7</f>
-        <v>0.11150661473429957</v>
+        <f t="shared" si="39"/>
+        <v>9.3263362315800791E-2</v>
       </c>
       <c r="AC26" s="3">
-        <f>+AC12/AC7</f>
-        <v>0.10665850105019961</v>
+        <f t="shared" si="39"/>
+        <v>8.5491415456150743E-2</v>
       </c>
       <c r="AD26" s="3"/>
       <c r="AE26" s="3"/>
@@ -2955,31 +2968,31 @@
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3">
-        <f>+G7/C7-1</f>
+        <f t="shared" ref="G28:M28" si="40">+G7/C7-1</f>
         <v>0.77329345030024865</v>
       </c>
       <c r="H28" s="3">
-        <f>+H7/D7-1</f>
+        <f t="shared" si="40"/>
         <v>0.63727130891268446</v>
       </c>
       <c r="I28" s="3">
-        <f>+I7/E7-1</f>
+        <f t="shared" si="40"/>
         <v>0.47864560856089544</v>
       </c>
       <c r="J28" s="3">
-        <f>+J7/F7-1</f>
+        <f t="shared" si="40"/>
         <v>0.43857398882524512</v>
       </c>
       <c r="K28" s="3">
-        <f>+K7/G7-1</f>
+        <f t="shared" si="40"/>
         <v>0.78286179997671446</v>
       </c>
       <c r="L28" s="3">
-        <f>+L7/H7-1</f>
+        <f t="shared" si="40"/>
         <v>0.78133036046079507</v>
       </c>
       <c r="M28" s="3">
-        <f>+M7/I7-1</f>
+        <f t="shared" si="40"/>
         <v>0.5831348776791514</v>
       </c>
       <c r="N28" s="3"/>
@@ -2987,36 +3000,36 @@
         <v>23</v>
       </c>
       <c r="V28" s="3">
-        <f>+V17/V16</f>
+        <f t="shared" ref="V28:AC28" si="41">+V17/V16</f>
         <v>0</v>
       </c>
       <c r="W28" s="3">
-        <f>+W17/W16</f>
+        <f t="shared" si="41"/>
         <v>4.6005963173986621E-2</v>
       </c>
       <c r="X28" s="3">
-        <f>+X17/X16</f>
-        <v>0.2</v>
+        <f t="shared" si="41"/>
+        <v>2.5338433309759174E-2</v>
       </c>
       <c r="Y28" s="3">
-        <f>+Y17/Y16</f>
-        <v>0.2</v>
+        <f t="shared" si="41"/>
+        <v>0</v>
       </c>
       <c r="Z28" s="3">
-        <f>+Z17/Z16</f>
-        <v>0.2</v>
+        <f t="shared" si="41"/>
+        <v>0</v>
       </c>
       <c r="AA28" s="3">
-        <f>+AA17/AA16</f>
-        <v>0.2</v>
+        <f t="shared" si="41"/>
+        <v>0</v>
       </c>
       <c r="AB28" s="3">
-        <f>+AB17/AB16</f>
-        <v>0.2</v>
+        <f t="shared" si="41"/>
+        <v>0</v>
       </c>
       <c r="AC28" s="3">
-        <f>+AC17/AC16</f>
-        <v>0.2</v>
+        <f t="shared" si="41"/>
+        <v>0</v>
       </c>
       <c r="AD28" s="3"/>
       <c r="AE28" s="3"/>
@@ -3029,31 +3042,31 @@
         <v>45</v>
       </c>
       <c r="G29" s="3">
-        <f>+G18/C18</f>
+        <f t="shared" ref="G29:M29" si="42">+G18/C18</f>
         <v>0.45580652797246463</v>
       </c>
       <c r="H29" s="3">
-        <f>+H18/D18</f>
+        <f t="shared" si="42"/>
         <v>-0.18654874755358758</v>
       </c>
       <c r="I29" s="3">
-        <f>+I18/E18</f>
+        <f t="shared" si="42"/>
         <v>-0.75832830934304618</v>
       </c>
       <c r="J29" s="3">
-        <f>+J18/F18</f>
+        <f t="shared" si="42"/>
         <v>-2.7229954614220873</v>
       </c>
       <c r="K29" s="3">
-        <f>+K18/G18</f>
+        <f t="shared" si="42"/>
         <v>-5.2009043927648575</v>
       </c>
       <c r="L29" s="3">
-        <f>+L18/H18</f>
+        <f t="shared" si="42"/>
         <v>13.096574344023296</v>
       </c>
       <c r="M29" s="3">
-        <f>+M18/I18</f>
+        <f t="shared" si="42"/>
         <v>4.5428997476485451</v>
       </c>
       <c r="V29" s="3">
@@ -3061,32 +3074,32 @@
         <v>0.97927776014470103</v>
       </c>
       <c r="W29" s="3">
-        <f t="shared" ref="W29:AC29" si="22">+ABS(W18/V18-1)</f>
+        <f t="shared" ref="W29:AC29" si="43">+ABS(W18/V18-1)</f>
         <v>94.909634055265428</v>
       </c>
       <c r="X29" s="3">
-        <f t="shared" si="22"/>
-        <v>0.1140804644319855</v>
+        <f t="shared" si="43"/>
+        <v>1.154191518549446</v>
       </c>
       <c r="Y29" s="3">
-        <f t="shared" si="22"/>
-        <v>0.87059832510015345</v>
+        <f t="shared" si="43"/>
+        <v>0.38537228017787473</v>
       </c>
       <c r="Z29" s="3">
-        <f t="shared" si="22"/>
-        <v>0.26410482568954041</v>
+        <f t="shared" si="43"/>
+        <v>0.32816723500688472</v>
       </c>
       <c r="AA29" s="3">
-        <f t="shared" si="22"/>
-        <v>0.25192871680580953</v>
+        <f t="shared" si="43"/>
+        <v>0.25696607732187471</v>
       </c>
       <c r="AB29" s="3">
-        <f t="shared" si="22"/>
-        <v>0.18785585087353485</v>
+        <f t="shared" si="43"/>
+        <v>0.2471331100207399</v>
       </c>
       <c r="AC29" s="3">
-        <f t="shared" si="22"/>
-        <v>0.18263391872506496</v>
+        <f t="shared" si="43"/>
+        <v>0.23930489378215158</v>
       </c>
       <c r="AD29" s="3"/>
       <c r="AE29" s="3"/>
@@ -3111,32 +3124,32 @@
         <v>50.306999999999995</v>
       </c>
       <c r="W31">
-        <f>+V31+W18</f>
+        <f t="shared" ref="W31:AC31" si="44">+V31+W18</f>
         <v>176.05199999999994</v>
       </c>
       <c r="X31">
-        <f>+W31+X18</f>
-        <v>316.14204799999993</v>
+        <f t="shared" si="44"/>
+        <v>446.93081249999989</v>
       </c>
       <c r="Y31">
-        <f>+X31+Y18</f>
-        <v>578.19425715199998</v>
+        <f t="shared" si="44"/>
+        <v>822.19881062499985</v>
       </c>
       <c r="Z31">
-        <f>+Y31+Z18</f>
-        <v>909.45571932364805</v>
+        <f t="shared" si="44"/>
+        <v>1320.6174700812498</v>
       </c>
       <c r="AA31">
-        <f>+Z31+AA18</f>
-        <v>1324.1714565874156</v>
+        <f t="shared" si="44"/>
+        <v>1947.1128173219997</v>
       </c>
       <c r="AB31">
-        <f>+AA31+AB18</f>
-        <v>1816.7939715455136</v>
+        <f t="shared" si="44"/>
+        <v>2728.4359081398798</v>
       </c>
       <c r="AC31">
-        <f>+AB31+AC18</f>
-        <v>2399.3860668626057</v>
+        <f t="shared" si="44"/>
+        <v>3696.733438215475</v>
       </c>
     </row>
     <row r="32" spans="1:55" x14ac:dyDescent="0.25">
@@ -3255,7 +3268,7 @@
         <f>+SUM(M32:M40)</f>
         <v>488.67800000000005</v>
       </c>
-      <c r="V41" s="10">
+      <c r="V41">
         <v>329.18200000000002</v>
       </c>
       <c r="W41">
@@ -3416,18 +3429,18 @@
       <c r="A54" t="s">
         <v>59</v>
       </c>
-      <c r="L54" s="11">
+      <c r="L54" s="3">
         <f>+L18/L41</f>
         <v>9.2000368646606129E-2</v>
       </c>
-      <c r="M54" s="11">
+      <c r="M54" s="3">
         <f>+M18/M41</f>
         <v>8.1045187219395992E-2</v>
       </c>
-      <c r="V54" s="11" t="s">
+      <c r="V54" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="W54" s="11">
+      <c r="W54" s="3">
         <f>+W18/W41</f>
         <v>0.25731667887647891</v>
       </c>
@@ -3436,18 +3449,18 @@
       <c r="A55" t="s">
         <v>60</v>
       </c>
-      <c r="L55" s="11">
+      <c r="L55" s="3">
         <f>+L18/L52</f>
         <v>0.18336163552419246</v>
       </c>
-      <c r="M55" s="11">
+      <c r="M55" s="3">
         <f>+M18/M52</f>
         <v>0.27665033163422903</v>
       </c>
-      <c r="V55" s="11" t="s">
+      <c r="V55" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="W55" s="11">
+      <c r="W55" s="3">
         <f>+W18/W52</f>
         <v>0.25731667887647891</v>
       </c>
@@ -3761,7 +3774,7 @@
         <v>23</v>
       </c>
       <c r="V79" s="3">
-        <f t="shared" ref="V79" si="23">+ABS(V78/U78-1)</f>
+        <f t="shared" ref="V79" si="45">+ABS(V78/U78-1)</f>
         <v>0.74196587725999497</v>
       </c>
       <c r="W79" s="3">
@@ -3804,7 +3817,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="12" t="s">
         <v>101</v>
       </c>
     </row>

--- a/Stocks/ADMA.xlsx
+++ b/Stocks/ADMA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27932"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://academiafaedupt-my.sharepoint.com/personal/sbclemente_academiafa_edu_pt/Documents/Gigs/WorkingFolder/Finance/Stocks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1263" documentId="11_FE4855BF84DCCE436F107A399131F45B7AFB1D1F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{417FB0D9-A845-441C-B67C-75266FF415AB}"/>
+  <xr:revisionPtr revIDLastSave="1264" documentId="11_FE4855BF84DCCE436F107A399131F45B7AFB1D1F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6366306D-7E12-4B46-A0D8-6348CA9FAAEA}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="105">
   <si>
     <t>ADMA</t>
   </si>
@@ -347,6 +347,12 @@
   </si>
   <si>
     <t xml:space="preserve">ROIC </t>
+  </si>
+  <si>
+    <t>Q225</t>
+  </si>
+  <si>
+    <t>Q125</t>
   </si>
 </sst>
 </file>
@@ -930,10 +936,10 @@
   <dimension ref="A1:XFD98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="P18" sqref="P18"/>
+      <selection pane="bottomRight" activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -994,8 +1000,11 @@
       <c r="M2" t="s">
         <v>18</v>
       </c>
+      <c r="N2" t="s">
+        <v>104</v>
+      </c>
       <c r="O2" t="s">
-        <v>23</v>
+        <v>103</v>
       </c>
       <c r="T2">
         <v>2021</v>
@@ -1123,7 +1132,12 @@
       <c r="M7" s="1">
         <v>117</v>
       </c>
-      <c r="N7" s="1"/>
+      <c r="N7" s="1">
+        <v>114.80200000000001</v>
+      </c>
+      <c r="O7" s="1">
+        <v>121.98399999999999</v>
+      </c>
       <c r="T7" t="s">
         <v>23</v>
       </c>
@@ -1233,7 +1247,12 @@
       <c r="M8" s="1">
         <v>54.216000000000001</v>
       </c>
-      <c r="N8" s="1"/>
+      <c r="N8" s="1">
+        <v>53.704999999999998</v>
+      </c>
+      <c r="O8" s="1">
+        <v>54.756999999999998</v>
+      </c>
       <c r="U8" s="1">
         <f>+SUM(B8:E8)</f>
         <v>118.81399999999999</v>
@@ -1310,7 +1329,14 @@
         <f t="shared" ref="M9" si="7">+M7-M8</f>
         <v>62.783999999999999</v>
       </c>
-      <c r="N9" s="1"/>
+      <c r="N9" s="1">
+        <f>+N7-N8</f>
+        <v>61.097000000000008</v>
+      </c>
+      <c r="O9" s="1">
+        <f>+O7-O8</f>
+        <v>67.227000000000004</v>
+      </c>
       <c r="U9" s="1">
         <f>+U7-U8</f>
         <v>35.26400000000001</v>
@@ -1394,7 +1420,12 @@
       <c r="M10" s="1">
         <v>0.39100000000000001</v>
       </c>
-      <c r="N10" s="1"/>
+      <c r="N10" s="1">
+        <v>0.82599999999999996</v>
+      </c>
+      <c r="O10" s="1">
+        <v>1.0309999999999999</v>
+      </c>
       <c r="U10" s="1">
         <f>+SUM(B10:E10)</f>
         <v>3.613</v>
@@ -1478,7 +1509,12 @@
       <c r="M11" s="1">
         <v>1.0209999999999999</v>
       </c>
-      <c r="N11" s="1"/>
+      <c r="N11" s="1">
+        <v>1.286</v>
+      </c>
+      <c r="O11" s="1">
+        <v>1.0209999999999999</v>
+      </c>
       <c r="U11" s="1">
         <f>+SUM(B11:E11)</f>
         <v>17.843</v>
@@ -1562,7 +1598,12 @@
       <c r="M12" s="1">
         <v>18.559999999999999</v>
       </c>
-      <c r="N12" s="1"/>
+      <c r="N12" s="1">
+        <v>24.079000000000001</v>
+      </c>
+      <c r="O12" s="1">
+        <v>18.559999999999999</v>
+      </c>
       <c r="U12" s="1">
         <f>+SUM(B12:E12)</f>
         <v>52.457999999999998</v>
@@ -1657,7 +1698,14 @@
         <f t="shared" si="13"/>
         <v>19.971999999999998</v>
       </c>
-      <c r="N13" s="1"/>
+      <c r="N13" s="1">
+        <f>+SUM(N10:N12)</f>
+        <v>26.191000000000003</v>
+      </c>
+      <c r="O13" s="1">
+        <f>+SUM(O10:O12)</f>
+        <v>20.611999999999998</v>
+      </c>
       <c r="U13" s="1">
         <f>+SUM(U10:U12)</f>
         <v>73.914000000000001</v>
@@ -1752,7 +1800,14 @@
         <f t="shared" si="15"/>
         <v>42.811999999999998</v>
       </c>
-      <c r="N14" s="1"/>
+      <c r="N14" s="1">
+        <f>+N9-N13</f>
+        <v>34.906000000000006</v>
+      </c>
+      <c r="O14" s="1">
+        <f>+O9-O13</f>
+        <v>46.615000000000009</v>
+      </c>
       <c r="U14" s="1">
         <f t="shared" ref="U14:AC14" si="16">+U9-U13</f>
         <v>-38.649999999999991</v>
@@ -1847,7 +1902,14 @@
         <f>0.598-2.879-0.086</f>
         <v>-2.367</v>
       </c>
-      <c r="N15" s="1"/>
+      <c r="N15" s="1">
+        <f>0.608-1.975-0.064</f>
+        <v>-1.431</v>
+      </c>
+      <c r="O15" s="1">
+        <f>0.4-1.834-0.108</f>
+        <v>-1.5420000000000003</v>
+      </c>
       <c r="U15" s="1">
         <f>+SUM(B15:E15)</f>
         <v>-25.966567000000005</v>
@@ -1861,27 +1923,27 @@
         <v>-12.026</v>
       </c>
       <c r="X15" s="1">
-        <f>+W31*$P$22</f>
+        <f>+W31*$S$31</f>
         <v>7.0420799999999977</v>
       </c>
       <c r="Y15" s="1">
-        <f t="shared" ref="Y15:AC15" si="18">+X31*$P$22</f>
+        <f>+X31*$S$31</f>
         <v>17.877232499999995</v>
       </c>
       <c r="Z15" s="1">
-        <f t="shared" si="18"/>
+        <f>+Y31*$S$31</f>
         <v>32.887952424999995</v>
       </c>
       <c r="AA15" s="1">
-        <f t="shared" si="18"/>
+        <f>+Z31*$S$31</f>
         <v>52.824698803249994</v>
       </c>
       <c r="AB15" s="1">
-        <f t="shared" si="18"/>
+        <f>+AA31*$S$31</f>
         <v>77.884512692879994</v>
       </c>
       <c r="AC15" s="1">
-        <f t="shared" si="18"/>
+        <f>+AB31*$S$31</f>
         <v>109.13743632559519</v>
       </c>
       <c r="AD15" s="1"/>
@@ -1895,88 +1957,95 @@
         <v>32</v>
       </c>
       <c r="B16" s="1">
-        <f t="shared" ref="B16:H16" si="19">+B14+B15</f>
+        <f t="shared" ref="B16:H16" si="18">+B14+B15</f>
         <v>-24.826224</v>
       </c>
       <c r="C16" s="1">
+        <f t="shared" si="18"/>
+        <v>-13.584711100000002</v>
+      </c>
+      <c r="D16" s="1">
+        <f t="shared" si="18"/>
+        <v>-14.709291999999998</v>
+      </c>
+      <c r="E16" s="1">
+        <f t="shared" si="18"/>
+        <v>-11.49633989999999</v>
+      </c>
+      <c r="F16" s="1">
+        <f t="shared" si="18"/>
+        <v>-6.61</v>
+      </c>
+      <c r="G16" s="1">
+        <f t="shared" si="18"/>
+        <v>-6.1920000000000011</v>
+      </c>
+      <c r="H16" s="1">
+        <f t="shared" si="18"/>
+        <v>2.7440000000000051</v>
+      </c>
+      <c r="I16" s="1">
+        <f t="shared" ref="I16:M16" si="19">+I14+I15</f>
+        <v>8.7179999999999964</v>
+      </c>
+      <c r="J16" s="1">
         <f t="shared" si="19"/>
-        <v>-13.584711100000002</v>
-      </c>
-      <c r="D16" s="1">
+        <v>18.593999999999998</v>
+      </c>
+      <c r="K16" s="1">
         <f t="shared" si="19"/>
-        <v>-14.709291999999998</v>
-      </c>
-      <c r="E16" s="1">
+        <v>35.993000000000002</v>
+      </c>
+      <c r="L16" s="1">
         <f t="shared" si="19"/>
-        <v>-11.49633989999999</v>
-      </c>
-      <c r="F16" s="1">
+        <v>36.776999999999994</v>
+      </c>
+      <c r="M16" s="1">
         <f t="shared" si="19"/>
-        <v>-6.61</v>
-      </c>
-      <c r="G16" s="1">
-        <f t="shared" si="19"/>
-        <v>-6.1920000000000011</v>
-      </c>
-      <c r="H16" s="1">
-        <f t="shared" si="19"/>
-        <v>2.7440000000000051</v>
-      </c>
-      <c r="I16" s="1">
-        <f t="shared" ref="I16:M16" si="20">+I14+I15</f>
-        <v>8.7179999999999964</v>
-      </c>
-      <c r="J16" s="1">
+        <v>40.445</v>
+      </c>
+      <c r="N16" s="1">
+        <f>+N14+N15</f>
+        <v>33.475000000000009</v>
+      </c>
+      <c r="O16" s="1">
+        <f>+O14+O15</f>
+        <v>45.073000000000008</v>
+      </c>
+      <c r="U16" s="1">
+        <f t="shared" ref="U16:AC16" si="20">+U14+U15</f>
+        <v>-64.616567000000003</v>
+      </c>
+      <c r="V16" s="1">
         <f t="shared" si="20"/>
-        <v>18.593999999999998</v>
-      </c>
-      <c r="K16" s="1">
+        <v>-1.3389999999999951</v>
+      </c>
+      <c r="W16" s="1">
         <f t="shared" si="20"/>
-        <v>35.993000000000002</v>
-      </c>
-      <c r="L16" s="1">
+        <v>131.80899999999994</v>
+      </c>
+      <c r="X16" s="1">
         <f t="shared" si="20"/>
-        <v>36.776999999999994</v>
-      </c>
-      <c r="M16" s="1">
+        <v>277.92089249999998</v>
+      </c>
+      <c r="Y16" s="1">
         <f t="shared" si="20"/>
-        <v>40.445</v>
-      </c>
-      <c r="N16" s="1"/>
-      <c r="U16" s="1">
-        <f t="shared" ref="U16:AC16" si="21">+U14+U15</f>
-        <v>-64.616567000000003</v>
-      </c>
-      <c r="V16" s="1">
-        <f t="shared" si="21"/>
-        <v>-1.3389999999999951</v>
-      </c>
-      <c r="W16" s="1">
-        <f t="shared" si="21"/>
-        <v>131.80899999999994</v>
-      </c>
-      <c r="X16" s="1">
-        <f t="shared" si="21"/>
-        <v>277.92089249999998</v>
-      </c>
-      <c r="Y16" s="1">
-        <f t="shared" si="21"/>
         <v>375.26799812499996</v>
       </c>
       <c r="Z16" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>498.41865945625</v>
       </c>
       <c r="AA16" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>626.49534724074988</v>
       </c>
       <c r="AB16" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>781.3230908178798</v>
       </c>
       <c r="AC16" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>968.29753007559498</v>
       </c>
       <c r="AD16" s="1"/>
@@ -2025,7 +2094,12 @@
       <c r="M17" s="1">
         <v>0.84</v>
       </c>
-      <c r="N17" s="1"/>
+      <c r="N17" s="1">
+        <v>6.5460000000000003</v>
+      </c>
+      <c r="O17" s="1">
+        <v>5.8780000000000001</v>
+      </c>
       <c r="U17" s="1">
         <f>+SUM(B17:E17)</f>
         <v>0</v>
@@ -2039,27 +2113,27 @@
         <v>6.0640000000000001</v>
       </c>
       <c r="X17" s="1">
-        <f>+W31*P22</f>
+        <f>+W31*S31</f>
         <v>7.0420799999999977</v>
       </c>
       <c r="Y17" s="1">
-        <f t="shared" ref="Y17:AC17" si="22">+X31*Q22</f>
+        <f t="shared" ref="Y17:AC17" si="21">+X31*Q22</f>
         <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AA17" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AB17" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AC17" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AD17" s="1"/>
@@ -2073,54 +2147,61 @@
         <v>34</v>
       </c>
       <c r="B18" s="11">
-        <f t="shared" ref="B18:L18" si="23">+B16-B17</f>
+        <f t="shared" ref="B18:L18" si="22">+B16-B17</f>
         <v>-24.826224</v>
       </c>
       <c r="C18" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>-13.584711100000002</v>
       </c>
       <c r="D18" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>-14.709291999999998</v>
       </c>
       <c r="E18" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>-11.49633989999999</v>
       </c>
       <c r="F18" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>-6.61</v>
       </c>
       <c r="G18" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>-6.1920000000000011</v>
       </c>
       <c r="H18" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>2.7440000000000051</v>
       </c>
       <c r="I18" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>8.7179999999999964</v>
       </c>
       <c r="J18" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>17.998999999999999</v>
       </c>
       <c r="K18" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>32.204000000000001</v>
       </c>
       <c r="L18" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>35.936999999999991</v>
       </c>
       <c r="M18" s="11">
-        <f t="shared" ref="M18" si="24">+M16-M17</f>
+        <f t="shared" ref="M18" si="23">+M16-M17</f>
         <v>39.604999999999997</v>
       </c>
-      <c r="N18" s="11"/>
+      <c r="N18" s="11">
+        <f>+N16-N17</f>
+        <v>26.929000000000009</v>
+      </c>
+      <c r="O18" s="11">
+        <f>+O16-O17</f>
+        <v>39.195000000000007</v>
+      </c>
       <c r="R18" s="10" t="s">
         <v>23</v>
       </c>
@@ -2133,31 +2214,31 @@
         <v>-1.3389999999999951</v>
       </c>
       <c r="W18" s="11">
-        <f t="shared" ref="W18:AC18" si="25">+W16-W17</f>
+        <f t="shared" ref="W18:AC18" si="24">+W16-W17</f>
         <v>125.74499999999995</v>
       </c>
       <c r="X18" s="11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>270.87881249999998</v>
       </c>
       <c r="Y18" s="11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>375.26799812499996</v>
       </c>
       <c r="Z18" s="11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>498.41865945625</v>
       </c>
       <c r="AA18" s="11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>626.49534724074988</v>
       </c>
       <c r="AB18" s="11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>781.3230908178798</v>
       </c>
       <c r="AC18" s="11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>968.29753007559498</v>
       </c>
       <c r="AD18" s="11">
@@ -2165,103 +2246,103 @@
         <v>958.61455477483901</v>
       </c>
       <c r="AE18" s="11">
-        <f t="shared" ref="AE18:BC18" si="26">+AD18*0.99</f>
+        <f t="shared" ref="AE18:BC18" si="25">+AD18*0.99</f>
         <v>949.02840922709061</v>
       </c>
       <c r="AF18" s="11">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>939.53812513481967</v>
       </c>
       <c r="AG18" s="11">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>930.14274388347144</v>
       </c>
       <c r="AH18" s="11">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>920.84131644463673</v>
       </c>
       <c r="AI18" s="11">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>911.63290328019036</v>
       </c>
       <c r="AJ18" s="11">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>902.51657424738846</v>
       </c>
       <c r="AK18" s="11">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>893.4914085049146</v>
       </c>
       <c r="AL18" s="11">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>884.55649441986543</v>
       </c>
       <c r="AM18" s="11">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>875.71092947566672</v>
       </c>
       <c r="AN18" s="11">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>866.95382018091004</v>
       </c>
       <c r="AO18" s="11">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>858.28428197910091</v>
       </c>
       <c r="AP18" s="11">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>849.70143915930987</v>
       </c>
       <c r="AQ18" s="11">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>841.20442476771677</v>
       </c>
       <c r="AR18" s="11">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>832.79238052003961</v>
       </c>
       <c r="AS18" s="11">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>824.46445671483923</v>
       </c>
       <c r="AT18" s="11">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>816.21981214769085</v>
       </c>
       <c r="AU18" s="11">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>808.05761402621397</v>
       </c>
       <c r="AV18" s="11">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>799.97703788595186</v>
       </c>
       <c r="AW18" s="11">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>791.97726750709228</v>
       </c>
       <c r="AX18" s="11">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>784.05749483202135</v>
       </c>
       <c r="AY18" s="11">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>776.21691988370117</v>
       </c>
       <c r="AZ18" s="11">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>768.45475068486417</v>
       </c>
       <c r="BA18" s="11">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>760.77020317801555</v>
       </c>
       <c r="BB18" s="11">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>753.1625011462354</v>
       </c>
       <c r="BC18" s="11">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>745.63087613477308</v>
       </c>
     </row>
@@ -2270,54 +2351,61 @@
         <v>35</v>
       </c>
       <c r="B19" s="7">
-        <f t="shared" ref="B19:L19" si="27">+B18/B20</f>
+        <f t="shared" ref="B19:L19" si="26">+B18/B20</f>
         <v>-0.12674782892822317</v>
       </c>
       <c r="C19" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>-6.9185146649147211E-2</v>
       </c>
       <c r="D19" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>-7.4901045406170583E-2</v>
       </c>
       <c r="E19" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>-5.8099295005912807E-2</v>
       </c>
       <c r="F19" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>-2.9785273412813302E-2</v>
       </c>
       <c r="G19" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>-2.7806343546656013E-2</v>
       </c>
       <c r="H19" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>1.1697950727071995E-2</v>
       </c>
       <c r="I19" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>3.9284117036748299E-2</v>
       </c>
       <c r="J19" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>7.8641232253887638E-2</v>
       </c>
       <c r="K19" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>0.13856129284862984</v>
       </c>
       <c r="L19" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>0.15320308136981975</v>
       </c>
       <c r="M19" s="7">
-        <f t="shared" ref="M19" si="28">+M18/M20</f>
+        <f t="shared" ref="M19" si="27">+M18/M20</f>
         <v>0.16886146348864259</v>
       </c>
-      <c r="N19" s="1"/>
+      <c r="N19" s="7">
+        <f>+N18/N20</f>
+        <v>0.11325412680054676</v>
+      </c>
+      <c r="O19" s="7">
+        <f>+O18/O20</f>
+        <v>0.16711337107530233</v>
+      </c>
       <c r="U19" s="7">
         <f>+U18/U20</f>
         <v>-0.3286363790097917</v>
@@ -2331,27 +2419,27 @@
         <v>0.55818598986236212</v>
       </c>
       <c r="X19" s="7">
-        <f t="shared" ref="X19:AC19" si="29">+X18/X20</f>
+        <f t="shared" ref="X19:AC19" si="28">+X18/X20</f>
         <v>1.2024395251346274</v>
       </c>
       <c r="Y19" s="7">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>1.6658263867117598</v>
       </c>
       <c r="Z19" s="7">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>2.2124960260404674</v>
       </c>
       <c r="AA19" s="7">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>2.7810324509423228</v>
       </c>
       <c r="AB19" s="7">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>3.4683176496122998</v>
       </c>
       <c r="AC19" s="7">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>4.2983030363555335</v>
       </c>
       <c r="AD19" s="1"/>
@@ -2400,7 +2488,12 @@
       <c r="M20" s="1">
         <v>234.54137600000001</v>
       </c>
-      <c r="N20" s="1"/>
+      <c r="N20" s="1">
+        <v>237.77500000000001</v>
+      </c>
+      <c r="O20" s="1">
+        <v>234.54137600000001</v>
+      </c>
       <c r="U20" s="1">
         <f>+AVERAGE(B20:E20)</f>
         <v>196.62025000000003</v>
@@ -2414,27 +2507,27 @@
         <v>225.27437499999999</v>
       </c>
       <c r="X20" s="1">
-        <f t="shared" ref="X20:AC20" si="30">+W20</f>
+        <f t="shared" ref="X20:AC20" si="29">+W20</f>
         <v>225.27437499999999</v>
       </c>
       <c r="Y20" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>225.27437499999999</v>
       </c>
       <c r="Z20" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>225.27437499999999</v>
       </c>
       <c r="AA20" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>225.27437499999999</v>
       </c>
       <c r="AB20" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>225.27437499999999</v>
       </c>
       <c r="AC20" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>225.27437499999999</v>
       </c>
       <c r="AD20" s="1"/>
@@ -2447,68 +2540,66 @@
       <c r="E21" t="s">
         <v>23</v>
       </c>
-      <c r="O21" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="22" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>37</v>
       </c>
       <c r="B22" s="3">
-        <f t="shared" ref="B22:M22" si="31">+B9/B7</f>
+        <f t="shared" ref="B22:M22" si="30">+B9/B7</f>
         <v>0.12582018140717355</v>
       </c>
       <c r="C22" s="3">
+        <f t="shared" si="30"/>
+        <v>0.2291631434958834</v>
+      </c>
+      <c r="D22" s="3">
+        <f t="shared" si="30"/>
+        <v>0.23501525004753018</v>
+      </c>
+      <c r="E22" s="3">
+        <f t="shared" si="30"/>
+        <v>0.28362597404033812</v>
+      </c>
+      <c r="F22" s="3">
+        <f t="shared" si="30"/>
+        <v>0.29013950873247352</v>
+      </c>
+      <c r="G22" s="3">
+        <f t="shared" si="30"/>
+        <v>0.2775975916038787</v>
+      </c>
+      <c r="H22" s="3">
+        <f t="shared" si="30"/>
+        <v>0.36645113340765523</v>
+      </c>
+      <c r="I22" s="3">
+        <f t="shared" si="30"/>
+        <v>0.42064029010608356</v>
+      </c>
+      <c r="J22" s="3">
+        <f t="shared" si="30"/>
+        <v>0.47765496183206102</v>
+      </c>
+      <c r="K22" s="3">
+        <f t="shared" si="30"/>
+        <v>0.53598716310137984</v>
+      </c>
+      <c r="L22" s="3">
+        <f t="shared" si="30"/>
+        <v>0.49782625021904386</v>
+      </c>
+      <c r="M22" s="3">
+        <f t="shared" si="30"/>
+        <v>0.53661538461538461</v>
+      </c>
+      <c r="N22" s="3">
+        <f t="shared" ref="N22:O22" si="31">+N9/N7</f>
+        <v>0.53219456107036467</v>
+      </c>
+      <c r="O22" s="3">
         <f t="shared" si="31"/>
-        <v>0.2291631434958834</v>
-      </c>
-      <c r="D22" s="3">
-        <f t="shared" si="31"/>
-        <v>0.23501525004753018</v>
-      </c>
-      <c r="E22" s="3">
-        <f t="shared" si="31"/>
-        <v>0.28362597404033812</v>
-      </c>
-      <c r="F22" s="3">
-        <f t="shared" si="31"/>
-        <v>0.29013950873247352</v>
-      </c>
-      <c r="G22" s="3">
-        <f t="shared" si="31"/>
-        <v>0.2775975916038787</v>
-      </c>
-      <c r="H22" s="3">
-        <f t="shared" si="31"/>
-        <v>0.36645113340765523</v>
-      </c>
-      <c r="I22" s="3">
-        <f t="shared" si="31"/>
-        <v>0.42064029010608356</v>
-      </c>
-      <c r="J22" s="3">
-        <f t="shared" si="31"/>
-        <v>0.47765496183206102</v>
-      </c>
-      <c r="K22" s="3">
-        <f t="shared" si="31"/>
-        <v>0.53598716310137984</v>
-      </c>
-      <c r="L22" s="3">
-        <f t="shared" si="31"/>
-        <v>0.49782625021904386</v>
-      </c>
-      <c r="M22" s="3">
-        <f t="shared" si="31"/>
-        <v>0.53661538461538461</v>
-      </c>
-      <c r="N22" s="3"/>
-      <c r="O22" t="s">
-        <v>102</v>
-      </c>
-      <c r="P22" s="3">
-        <v>0.04</v>
+        <v>0.55111326075550893</v>
       </c>
       <c r="U22" s="3"/>
       <c r="V22" s="3"/>
@@ -2577,47 +2668,48 @@
         <f t="shared" si="32"/>
         <v>3.3418803418803419E-3</v>
       </c>
-      <c r="N23" s="3"/>
-      <c r="O23" t="s">
-        <v>38</v>
-      </c>
-      <c r="P23" s="3">
-        <v>0.09</v>
+      <c r="N23" s="3">
+        <f t="shared" ref="N23:O23" si="33">+N10/N7</f>
+        <v>7.1949966028466393E-3</v>
+      </c>
+      <c r="O23" s="3">
+        <f t="shared" si="33"/>
+        <v>8.4519281217208808E-3</v>
       </c>
       <c r="U23" s="3">
-        <f t="shared" ref="U23:AC23" si="33">+U9/U7</f>
+        <f t="shared" ref="U23:AC23" si="34">+U9/U7</f>
         <v>0.22887109126546301</v>
       </c>
       <c r="V23" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0.34445193171608268</v>
       </c>
       <c r="W23" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0.51420856763832301</v>
       </c>
       <c r="X23" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0.65</v>
       </c>
       <c r="Y23" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0.65</v>
       </c>
       <c r="Z23" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0.65000000000000013</v>
       </c>
       <c r="AA23" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0.64999999999999991</v>
       </c>
       <c r="AB23" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0.65</v>
       </c>
       <c r="AC23" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0.65</v>
       </c>
       <c r="AD23" s="3"/>
@@ -2631,95 +2723,95 @@
         <v>41</v>
       </c>
       <c r="B24" s="3">
-        <f t="shared" ref="B24:M24" si="34">+B11/B7</f>
+        <f t="shared" ref="B24:M24" si="35">+B11/B7</f>
         <v>0.13655086667536231</v>
       </c>
       <c r="C24" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.11564764929606432</v>
       </c>
       <c r="D24" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.11825345655900012</v>
       </c>
       <c r="E24" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.10181894758019049</v>
       </c>
       <c r="F24" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>3.1275257405910674E-2</v>
       </c>
       <c r="G24" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>2.2171215674533871E-2</v>
       </c>
       <c r="H24" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>6.9416573764399846E-3</v>
       </c>
       <c r="I24" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>9.268781121454862E-3</v>
       </c>
       <c r="J24" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1.2274809160305343E-2</v>
       </c>
       <c r="K24" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>8.788051235644783E-3</v>
       </c>
       <c r="L24" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>8.5197640167224351E-3</v>
       </c>
       <c r="M24" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>8.7264957264957255E-3</v>
       </c>
-      <c r="N24" s="3"/>
-      <c r="O24" t="s">
-        <v>40</v>
-      </c>
-      <c r="P24" s="4">
-        <f>+NPV(P23,W18:BA18)-main!L5+main!L6</f>
-        <v>7097.7634385420743</v>
+      <c r="N24" s="3">
+        <f t="shared" ref="N24:O24" si="36">+N11/N7</f>
+        <v>1.1201895437361718E-2</v>
+      </c>
+      <c r="O24" s="3">
+        <f t="shared" si="36"/>
+        <v>8.3699501573976914E-3</v>
       </c>
       <c r="U24" s="3">
-        <f t="shared" ref="U24:AC24" si="35">+U10/U7</f>
+        <f t="shared" ref="U24:AC24" si="37">+U10/U7</f>
         <v>2.3449162112696167E-2</v>
       </c>
       <c r="V24" s="3">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1.2776125414381757E-2</v>
       </c>
       <c r="W24" s="3">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>4.2568178349631962E-3</v>
       </c>
       <c r="X24" s="3">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>3.7459996947676135E-3</v>
       </c>
       <c r="Y24" s="3">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>3.2964797313955003E-3</v>
       </c>
       <c r="Z24" s="3">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>2.9009021636280398E-3</v>
       </c>
       <c r="AA24" s="3">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>2.6591603166590374E-3</v>
       </c>
       <c r="AB24" s="3">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>2.4375636236041178E-3</v>
       </c>
       <c r="AC24" s="3">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>2.2344333216371085E-3</v>
       </c>
       <c r="AD24" s="3"/>
@@ -2733,95 +2825,95 @@
         <v>43</v>
       </c>
       <c r="B25" s="3">
-        <f t="shared" ref="B25:M25" si="36">+B12/B7</f>
+        <f t="shared" ref="B25:M25" si="38">+B12/B7</f>
         <v>0.47071221001152197</v>
       </c>
       <c r="C25" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0.35304829433152002</v>
       </c>
       <c r="D25" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0.31377687084074679</v>
       </c>
       <c r="E25" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0.27802635008338117</v>
       </c>
       <c r="F25" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0.25498119970481781</v>
       </c>
       <c r="G25" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0.23698085591204696</v>
       </c>
       <c r="H25" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0.21889260497956151</v>
       </c>
       <c r="I25" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0.21020513098073176</v>
       </c>
       <c r="J25" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0.19101068702290075</v>
       </c>
       <c r="K25" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0.15493838102079466</v>
       </c>
       <c r="L25" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0.15487445656255475</v>
       </c>
       <c r="M25" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0.15863247863247862</v>
       </c>
-      <c r="N25" s="3"/>
-      <c r="O25" t="s">
-        <v>42</v>
-      </c>
-      <c r="P25" s="5">
-        <f>+P24/main!L3</f>
-        <v>30.025618012863138</v>
+      <c r="N25" s="3">
+        <f t="shared" ref="N25:O25" si="39">+N12/N7</f>
+        <v>0.20974373268758384</v>
+      </c>
+      <c r="O25" s="3">
+        <f t="shared" si="39"/>
+        <v>0.1521511017838405</v>
       </c>
       <c r="U25" s="3">
-        <f t="shared" ref="U25:AC25" si="37">+U11/U7</f>
+        <f t="shared" ref="U25:AC25" si="40">+U11/U7</f>
         <v>0.11580498189228831</v>
       </c>
       <c r="V25" s="3">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>1.6517179415682995E-2</v>
       </c>
       <c r="W25" s="3">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>9.3659384134959674E-3</v>
       </c>
       <c r="X25" s="3">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>8.2420258038764533E-3</v>
       </c>
       <c r="Y25" s="3">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>7.2529827074112787E-3</v>
       </c>
       <c r="Z25" s="3">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>6.3826247825219257E-3</v>
       </c>
       <c r="AA25" s="3">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>5.8507393839784321E-3</v>
       </c>
       <c r="AB25" s="3">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>5.3631777686468972E-3</v>
       </c>
       <c r="AC25" s="3">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>4.9162462879263234E-3</v>
       </c>
       <c r="AD25" s="3"/>
@@ -2835,95 +2927,95 @@
         <v>44</v>
       </c>
       <c r="B26" s="3">
-        <f t="shared" ref="B26:M26" si="38">+B17/B16</f>
+        <f t="shared" ref="B26:M26" si="41">+B17/B16</f>
         <v>0</v>
       </c>
       <c r="C26" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="D26" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="E26" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="F26" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="G26" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="H26" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="I26" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="J26" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>3.1999569753683989E-2</v>
       </c>
       <c r="K26" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>0.10527046925791125</v>
       </c>
       <c r="L26" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>2.2840362182886046E-2</v>
       </c>
       <c r="M26" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>2.0768945481518111E-2</v>
       </c>
-      <c r="N26" s="3"/>
-      <c r="O26" t="s">
-        <v>85</v>
-      </c>
-      <c r="P26" s="3">
-        <f>+P25/main!L2-1</f>
-        <v>0.42979133394586366</v>
+      <c r="N26" s="3">
+        <f t="shared" ref="N26:O26" si="42">+N17/N16</f>
+        <v>0.19554891710231512</v>
+      </c>
+      <c r="O26" s="3">
+        <f t="shared" si="42"/>
+        <v>0.1304106671399729</v>
       </c>
       <c r="U26" s="3">
-        <f t="shared" ref="U26:AC26" si="39">+U12/U7</f>
+        <f t="shared" ref="U26:AC26" si="43">+U12/U7</f>
         <v>0.34046392087124699</v>
       </c>
       <c r="V26" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>0.22857220311677046</v>
       </c>
       <c r="W26" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>0.16286965403082848</v>
       </c>
       <c r="X26" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>0.14332529554712908</v>
       </c>
       <c r="Y26" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>0.12612626008147362</v>
       </c>
       <c r="Z26" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>0.11099110887169679</v>
       </c>
       <c r="AA26" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>0.1017418497990554</v>
       </c>
       <c r="AB26" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>9.3263362315800791E-2</v>
       </c>
       <c r="AC26" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>8.5491415456150743E-2</v>
       </c>
       <c r="AD26" s="3"/>
@@ -2968,67 +3060,74 @@
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3">
-        <f t="shared" ref="G28:M28" si="40">+G7/C7-1</f>
+        <f t="shared" ref="G28:M28" si="44">+G7/C7-1</f>
         <v>0.77329345030024865</v>
       </c>
       <c r="H28" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>0.63727130891268446</v>
       </c>
       <c r="I28" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>0.47864560856089544</v>
       </c>
       <c r="J28" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>0.43857398882524512</v>
       </c>
       <c r="K28" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>0.78286179997671446</v>
       </c>
       <c r="L28" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>0.78133036046079507</v>
       </c>
       <c r="M28" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>0.5831348776791514</v>
       </c>
-      <c r="N28" s="3"/>
+      <c r="N28" s="3">
+        <f t="shared" ref="N28" si="45">+N7/J7-1</f>
+        <v>0.4021618320610687</v>
+      </c>
+      <c r="O28" s="3">
+        <f t="shared" ref="O28" si="46">+O7/K7-1</f>
+        <v>0.13800598930880392</v>
+      </c>
       <c r="U28" s="3" t="s">
         <v>23</v>
       </c>
       <c r="V28" s="3">
-        <f t="shared" ref="V28:AC28" si="41">+V17/V16</f>
+        <f t="shared" ref="V28:AC28" si="47">+V17/V16</f>
         <v>0</v>
       </c>
       <c r="W28" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>4.6005963173986621E-2</v>
       </c>
       <c r="X28" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>2.5338433309759174E-2</v>
       </c>
       <c r="Y28" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="Z28" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="AA28" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="AB28" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="AC28" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="AD28" s="3"/>
@@ -3042,63 +3141,71 @@
         <v>45</v>
       </c>
       <c r="G29" s="3">
-        <f t="shared" ref="G29:M29" si="42">+G18/C18</f>
+        <f t="shared" ref="G29:M29" si="48">+G18/C18</f>
         <v>0.45580652797246463</v>
       </c>
       <c r="H29" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="48"/>
         <v>-0.18654874755358758</v>
       </c>
       <c r="I29" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="48"/>
         <v>-0.75832830934304618</v>
       </c>
       <c r="J29" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="48"/>
         <v>-2.7229954614220873</v>
       </c>
       <c r="K29" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="48"/>
         <v>-5.2009043927648575</v>
       </c>
       <c r="L29" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="48"/>
         <v>13.096574344023296</v>
       </c>
       <c r="M29" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="48"/>
         <v>4.5428997476485451</v>
+      </c>
+      <c r="N29" s="3">
+        <f t="shared" ref="N29" si="49">+N18/J18</f>
+        <v>1.4961386743707989</v>
+      </c>
+      <c r="O29" s="3">
+        <f t="shared" ref="O29" si="50">+O18/K18</f>
+        <v>1.2170848341820895</v>
       </c>
       <c r="V29" s="3">
         <f>+ABS(V18/U18-1)</f>
         <v>0.97927776014470103</v>
       </c>
       <c r="W29" s="3">
-        <f t="shared" ref="W29:AC29" si="43">+ABS(W18/V18-1)</f>
+        <f t="shared" ref="W29:AC29" si="51">+ABS(W18/V18-1)</f>
         <v>94.909634055265428</v>
       </c>
       <c r="X29" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="51"/>
         <v>1.154191518549446</v>
       </c>
       <c r="Y29" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="51"/>
         <v>0.38537228017787473</v>
       </c>
       <c r="Z29" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="51"/>
         <v>0.32816723500688472</v>
       </c>
       <c r="AA29" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="51"/>
         <v>0.25696607732187471</v>
       </c>
       <c r="AB29" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="51"/>
         <v>0.2471331100207399</v>
       </c>
       <c r="AC29" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="51"/>
         <v>0.23930489378215158</v>
       </c>
       <c r="AD29" s="3"/>
@@ -3119,36 +3226,42 @@
         <f>86.707-1.193-1.688</f>
         <v>83.825999999999993</v>
       </c>
+      <c r="R31" t="s">
+        <v>102</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0.04</v>
+      </c>
       <c r="V31">
         <f>86.707-27.535-8.865</f>
         <v>50.306999999999995</v>
       </c>
       <c r="W31">
-        <f t="shared" ref="W31:AC31" si="44">+V31+W18</f>
+        <f t="shared" ref="W31:AC31" si="52">+V31+W18</f>
         <v>176.05199999999994</v>
       </c>
       <c r="X31">
-        <f t="shared" si="44"/>
+        <f t="shared" si="52"/>
         <v>446.93081249999989</v>
       </c>
       <c r="Y31">
-        <f t="shared" si="44"/>
+        <f t="shared" si="52"/>
         <v>822.19881062499985</v>
       </c>
       <c r="Z31">
-        <f t="shared" si="44"/>
+        <f t="shared" si="52"/>
         <v>1320.6174700812498</v>
       </c>
       <c r="AA31">
-        <f t="shared" si="44"/>
+        <f t="shared" si="52"/>
         <v>1947.1128173219997</v>
       </c>
       <c r="AB31">
-        <f t="shared" si="44"/>
+        <f t="shared" si="52"/>
         <v>2728.4359081398798</v>
       </c>
       <c r="AC31">
-        <f t="shared" si="44"/>
+        <f t="shared" si="52"/>
         <v>3696.733438215475</v>
       </c>
     </row>
@@ -3162,6 +3275,12 @@
       <c r="M32">
         <v>103.14700000000001</v>
       </c>
+      <c r="R32" t="s">
+        <v>38</v>
+      </c>
+      <c r="S32" s="3">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -3173,6 +3292,13 @@
       <c r="M33">
         <v>49.999000000000002</v>
       </c>
+      <c r="R33" t="s">
+        <v>40</v>
+      </c>
+      <c r="S33" s="4">
+        <f>+NPV(S32,W18:BA18)-main!L5+main!L6</f>
+        <v>7097.7634385420743</v>
+      </c>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
@@ -3184,6 +3310,13 @@
       <c r="M34">
         <v>170.23500000000001</v>
       </c>
+      <c r="R34" t="s">
+        <v>42</v>
+      </c>
+      <c r="S34" s="5">
+        <f>+S33/main!L3</f>
+        <v>30.025618012863138</v>
+      </c>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
@@ -3195,6 +3328,13 @@
       <c r="M35">
         <v>8.0289999999999999</v>
       </c>
+      <c r="R35" t="s">
+        <v>85</v>
+      </c>
+      <c r="S35" s="3">
+        <f>+S34/main!L2-1</f>
+        <v>0.42979133394586366</v>
+      </c>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
@@ -3774,7 +3914,7 @@
         <v>23</v>
       </c>
       <c r="V79" s="3">
-        <f t="shared" ref="V79" si="45">+ABS(V78/U78-1)</f>
+        <f t="shared" ref="V79" si="53">+ABS(V78/U78-1)</f>
         <v>0.74196587725999497</v>
       </c>
       <c r="W79" s="3">
